--- a/JupyterNotebooks/AvgHW/RGossF-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +564,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.452125741485345</v>
+      </c>
+      <c r="D3">
         <v>1.295492266374951</v>
-      </c>
-      <c r="D3">
-        <v>1.452125741485345</v>
       </c>
       <c r="E3">
         <v>1.150269633858089</v>
       </c>
       <c r="F3">
+        <v>1.452125741485345</v>
+      </c>
+      <c r="G3">
+        <v>0.976623643827448</v>
+      </c>
+      <c r="H3">
         <v>1.295492266374951</v>
       </c>
-      <c r="G3">
+      <c r="I3">
+        <v>0.9336899255913829</v>
+      </c>
+      <c r="J3">
         <v>1.548560020979328</v>
-      </c>
-      <c r="H3">
-        <v>0.9336899255913829</v>
-      </c>
-      <c r="I3">
-        <v>0.976623643827448</v>
-      </c>
-      <c r="J3">
-        <v>1.452125741485345</v>
       </c>
       <c r="K3">
         <v>1.295492266374951</v>
@@ -676,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.871386903592938</v>
+      </c>
+      <c r="D4">
         <v>1.3302430938643</v>
-      </c>
-      <c r="D4">
-        <v>1.871386903592938</v>
       </c>
       <c r="E4">
         <v>1.285733242545227</v>
       </c>
       <c r="F4">
+        <v>1.871386903592938</v>
+      </c>
+      <c r="G4">
+        <v>1.127661896990736</v>
+      </c>
+      <c r="H4">
         <v>1.3302430938643</v>
       </c>
-      <c r="G4">
+      <c r="I4">
+        <v>0.9881563300975634</v>
+      </c>
+      <c r="J4">
         <v>2.251736062872274</v>
-      </c>
-      <c r="H4">
-        <v>0.9881563300975634</v>
-      </c>
-      <c r="I4">
-        <v>1.127661896990736</v>
-      </c>
-      <c r="J4">
-        <v>1.871386903592938</v>
       </c>
       <c r="K4">
         <v>1.3302430938643</v>
@@ -738,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>5.062552831278016</v>
+      </c>
+      <c r="D5">
         <v>2.978031122509834</v>
-      </c>
-      <c r="D5">
-        <v>5.062552831278016</v>
       </c>
       <c r="E5">
         <v>2.160744933283168</v>
       </c>
       <c r="F5">
+        <v>5.062552831278016</v>
+      </c>
+      <c r="G5">
+        <v>1.135549128105724</v>
+      </c>
+      <c r="H5">
         <v>2.978031122509834</v>
       </c>
-      <c r="G5">
+      <c r="I5">
+        <v>0.8218370522459507</v>
+      </c>
+      <c r="J5">
         <v>0.805672669962617</v>
-      </c>
-      <c r="H5">
-        <v>0.8218370522459507</v>
-      </c>
-      <c r="I5">
-        <v>1.135549128105724</v>
-      </c>
-      <c r="J5">
-        <v>5.062552831278016</v>
       </c>
       <c r="K5">
         <v>2.978031122509834</v>
@@ -800,31 +812,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>6.141536622625312</v>
+        <v>10.53646014905571</v>
       </c>
       <c r="D6">
-        <v>10.53646014905571</v>
+        <v>6.141536622625311</v>
       </c>
       <c r="E6">
         <v>0.1983221858562887</v>
       </c>
       <c r="F6">
-        <v>6.141536622625312</v>
+        <v>10.53646014905571</v>
       </c>
       <c r="G6">
+        <v>1.679612278469824</v>
+      </c>
+      <c r="H6">
+        <v>6.141536622625311</v>
+      </c>
+      <c r="I6">
+        <v>1.581953353157452</v>
+      </c>
+      <c r="J6">
         <v>0.9160690244347376</v>
       </c>
-      <c r="H6">
-        <v>1.581953353157452</v>
-      </c>
-      <c r="I6">
-        <v>1.679612278469824</v>
-      </c>
-      <c r="J6">
-        <v>10.53646014905571</v>
-      </c>
       <c r="K6">
-        <v>6.141536622625312</v>
+        <v>6.141536622625311</v>
       </c>
       <c r="L6">
         <v>0.1983221858562887</v>
@@ -839,16 +851,16 @@
         <v>4.105578562689815</v>
       </c>
       <c r="P6">
-        <v>5.625439652512436</v>
+        <v>5.625439652512434</v>
       </c>
       <c r="Q6">
         <v>5.625439652512434</v>
       </c>
       <c r="R6">
-        <v>5.754463895040654</v>
+        <v>5.754463895040653</v>
       </c>
       <c r="S6">
-        <v>5.754463895040654</v>
+        <v>5.754463895040653</v>
       </c>
       <c r="T6">
         <v>3.508992268933219</v>
@@ -862,28 +874,28 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>1.072572698842061</v>
+      </c>
+      <c r="D7">
         <v>1.154966495101525</v>
-      </c>
-      <c r="D7">
-        <v>1.072572698842061</v>
       </c>
       <c r="E7">
         <v>1.044937235715587</v>
       </c>
       <c r="F7">
+        <v>1.072572698842061</v>
+      </c>
+      <c r="G7">
+        <v>1.030770772251524</v>
+      </c>
+      <c r="H7">
         <v>1.154966495101525</v>
       </c>
-      <c r="G7">
+      <c r="I7">
+        <v>0.951383605261601</v>
+      </c>
+      <c r="J7">
         <v>1.079430957471956</v>
-      </c>
-      <c r="H7">
-        <v>0.9513836052616002</v>
-      </c>
-      <c r="I7">
-        <v>1.030770772251522</v>
-      </c>
-      <c r="J7">
-        <v>1.072572698842061</v>
       </c>
       <c r="K7">
         <v>1.154966495101525</v>
@@ -901,16 +913,16 @@
         <v>1.022964513273083</v>
       </c>
       <c r="P7">
-        <v>1.090825476553058</v>
+        <v>1.090825476553057</v>
       </c>
       <c r="Q7">
-        <v>1.090825476553058</v>
+        <v>1.090825476553057</v>
       </c>
       <c r="R7">
-        <v>1.106860731190175</v>
+        <v>1.106860731190174</v>
       </c>
       <c r="S7">
-        <v>1.106860731190175</v>
+        <v>1.106860731190174</v>
       </c>
       <c r="T7">
         <v>1.055676960774042</v>
@@ -924,58 +936,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.333973750151441</v>
+        <v>0.9979432565812978</v>
       </c>
       <c r="D8">
-        <v>0.9979432565812985</v>
+        <v>1.333973750151458</v>
       </c>
       <c r="E8">
-        <v>1.05349750882716</v>
+        <v>1.053497508827163</v>
       </c>
       <c r="F8">
-        <v>1.333973750151441</v>
+        <v>0.9979432565812978</v>
       </c>
       <c r="G8">
-        <v>1.052196321400934</v>
+        <v>1.040257258505443</v>
       </c>
       <c r="H8">
-        <v>0.957674217576452</v>
+        <v>1.333973750151458</v>
       </c>
       <c r="I8">
-        <v>1.040257258505444</v>
+        <v>0.9576742175764517</v>
       </c>
       <c r="J8">
-        <v>0.9979432565812985</v>
+        <v>1.052196321400933</v>
       </c>
       <c r="K8">
-        <v>1.333973750151441</v>
+        <v>1.333973750151458</v>
       </c>
       <c r="L8">
-        <v>1.05349750882716</v>
+        <v>1.053497508827163</v>
       </c>
       <c r="M8">
-        <v>1.025720382704229</v>
+        <v>1.02572038270423</v>
       </c>
       <c r="N8">
-        <v>1.025720382704229</v>
+        <v>1.02572038270423</v>
       </c>
       <c r="O8">
         <v>1.003038327661637</v>
       </c>
       <c r="P8">
-        <v>1.128471505186633</v>
+        <v>1.128471505186639</v>
       </c>
       <c r="Q8">
-        <v>1.128471505186633</v>
+        <v>1.128471505186639</v>
       </c>
       <c r="R8">
-        <v>1.179847066427835</v>
+        <v>1.179847066427844</v>
       </c>
       <c r="S8">
-        <v>1.179847066427835</v>
+        <v>1.179847066427844</v>
       </c>
       <c r="T8">
-        <v>1.072590385507121</v>
+        <v>1.072590385507124</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -986,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.170784789548284</v>
+      </c>
+      <c r="D9">
         <v>1.510475023447335</v>
-      </c>
-      <c r="D9">
-        <v>1.170784789548284</v>
       </c>
       <c r="E9">
         <v>1.003872677976649</v>
       </c>
       <c r="F9">
+        <v>1.170784789548284</v>
+      </c>
+      <c r="G9">
+        <v>1.040393402922461</v>
+      </c>
+      <c r="H9">
         <v>1.510475023447335</v>
       </c>
-      <c r="G9">
+      <c r="I9">
+        <v>0.8908227406339652</v>
+      </c>
+      <c r="J9">
         <v>0.9021018654073194</v>
-      </c>
-      <c r="H9">
-        <v>0.8908227406339653</v>
-      </c>
-      <c r="I9">
-        <v>1.040393402922461</v>
-      </c>
-      <c r="J9">
-        <v>1.170784789548284</v>
       </c>
       <c r="K9">
         <v>1.510475023447335</v>
@@ -1048,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.835955417661641</v>
+      </c>
+      <c r="D10">
         <v>2.157090851817953</v>
-      </c>
-      <c r="D10">
-        <v>1.835955417661641</v>
       </c>
       <c r="E10">
         <v>1.051598246964685</v>
       </c>
       <c r="F10">
+        <v>1.835955417661641</v>
+      </c>
+      <c r="G10">
+        <v>0.9735831854508762</v>
+      </c>
+      <c r="H10">
         <v>2.157090851817953</v>
       </c>
-      <c r="G10">
+      <c r="I10">
+        <v>0.8705084761997125</v>
+      </c>
+      <c r="J10">
         <v>0.7243580293298465</v>
-      </c>
-      <c r="H10">
-        <v>0.8705084761997125</v>
-      </c>
-      <c r="I10">
-        <v>0.9735831854508762</v>
-      </c>
-      <c r="J10">
-        <v>1.835955417661641</v>
       </c>
       <c r="K10">
         <v>2.157090851817953</v>
@@ -1110,34 +1122,34 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>3.422720996974683</v>
+      </c>
+      <c r="D11">
         <v>3.06148866909023</v>
       </c>
-      <c r="D11">
+      <c r="E11">
+        <v>0.9598420756086152</v>
+      </c>
+      <c r="F11">
         <v>3.422720996974683</v>
       </c>
-      <c r="E11">
-        <v>0.959842075608615</v>
-      </c>
-      <c r="F11">
+      <c r="G11">
+        <v>1.037594015808032</v>
+      </c>
+      <c r="H11">
         <v>3.06148866909023</v>
       </c>
-      <c r="G11">
+      <c r="I11">
+        <v>1.064044881497058</v>
+      </c>
+      <c r="J11">
         <v>0.1782035295892721</v>
-      </c>
-      <c r="H11">
-        <v>1.064044881497057</v>
-      </c>
-      <c r="I11">
-        <v>1.037594015808032</v>
-      </c>
-      <c r="J11">
-        <v>3.422720996974683</v>
       </c>
       <c r="K11">
         <v>3.06148866909023</v>
       </c>
       <c r="L11">
-        <v>0.959842075608615</v>
+        <v>0.9598420756086152</v>
       </c>
       <c r="M11">
         <v>2.191281536291649</v>
@@ -1155,13 +1167,13 @@
         <v>2.481350580557843</v>
       </c>
       <c r="R11">
-        <v>2.626385102690939</v>
+        <v>2.62638510269094</v>
       </c>
       <c r="S11">
-        <v>2.626385102690939</v>
+        <v>2.62638510269094</v>
       </c>
       <c r="T11">
-        <v>1.620649028094648</v>
+        <v>1.620649028094649</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1172,58 +1184,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>-0.0003421703317368961</v>
+        <v>0.004554680423565737</v>
       </c>
       <c r="D12">
-        <v>0.004554680423565732</v>
+        <v>-0.0003421703317368952</v>
       </c>
       <c r="E12">
-        <v>0.5690785811987967</v>
+        <v>0.5690785811987971</v>
       </c>
       <c r="F12">
-        <v>-0.0003421703317368961</v>
+        <v>0.004554680423565737</v>
       </c>
       <c r="G12">
-        <v>-0.002882229086911456</v>
+        <v>1.197160491324909</v>
       </c>
       <c r="H12">
-        <v>0.2984651631758174</v>
+        <v>-0.0003421703317368952</v>
       </c>
       <c r="I12">
-        <v>1.197160491324912</v>
+        <v>0.2984651631758184</v>
       </c>
       <c r="J12">
-        <v>0.004554680423565732</v>
+        <v>-0.002882229086911463</v>
       </c>
       <c r="K12">
-        <v>-0.0003421703317368961</v>
+        <v>-0.0003421703317368952</v>
       </c>
       <c r="L12">
-        <v>0.5690785811987967</v>
+        <v>0.5690785811987971</v>
       </c>
       <c r="M12">
-        <v>0.2868166308111813</v>
+        <v>0.2868166308111814</v>
       </c>
       <c r="N12">
-        <v>0.2868166308111813</v>
+        <v>0.2868166308111814</v>
       </c>
       <c r="O12">
-        <v>0.2906994749327266</v>
+        <v>0.2906994749327271</v>
       </c>
       <c r="P12">
-        <v>0.1910970304302085</v>
+        <v>0.1910970304302086</v>
       </c>
       <c r="Q12">
-        <v>0.1910970304302085</v>
+        <v>0.1910970304302086</v>
       </c>
       <c r="R12">
-        <v>0.1432372302397222</v>
+        <v>0.1432372302397223</v>
       </c>
       <c r="S12">
-        <v>0.1432372302397222</v>
+        <v>0.1432372302397223</v>
       </c>
       <c r="T12">
-        <v>0.3443390861174072</v>
+        <v>0.3443390861174069</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1234,58 +1246,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>3.94901608169484</v>
+        <v>1.697035567127566</v>
       </c>
       <c r="D13">
-        <v>1.69703556712756</v>
+        <v>3.949016081694854</v>
       </c>
       <c r="E13">
-        <v>-0.000260192922292901</v>
+        <v>-0.0002601929222928995</v>
       </c>
       <c r="F13">
-        <v>3.94901608169484</v>
+        <v>1.697035567127566</v>
       </c>
       <c r="G13">
-        <v>5.78481242547065</v>
+        <v>0.2773127339309186</v>
       </c>
       <c r="H13">
-        <v>1.399430878682574</v>
+        <v>3.949016081694854</v>
       </c>
       <c r="I13">
-        <v>0.2773127339309186</v>
+        <v>1.399430878682573</v>
       </c>
       <c r="J13">
-        <v>1.69703556712756</v>
+        <v>5.784812425470655</v>
       </c>
       <c r="K13">
-        <v>3.94901608169484</v>
+        <v>3.949016081694854</v>
       </c>
       <c r="L13">
-        <v>-0.000260192922292901</v>
+        <v>-0.0002601929222928995</v>
       </c>
       <c r="M13">
-        <v>0.8483876871026335</v>
+        <v>0.8483876871026366</v>
       </c>
       <c r="N13">
-        <v>0.8483876871026335</v>
+        <v>0.8483876871026366</v>
       </c>
       <c r="O13">
-        <v>1.032068750962614</v>
+        <v>1.032068750962615</v>
       </c>
       <c r="P13">
-        <v>1.881930485300036</v>
+        <v>1.881930485300042</v>
       </c>
       <c r="Q13">
-        <v>1.881930485300036</v>
+        <v>1.881930485300042</v>
       </c>
       <c r="R13">
-        <v>2.398701884398737</v>
+        <v>2.398701884398745</v>
       </c>
       <c r="S13">
-        <v>2.398701884398737</v>
+        <v>2.398701884398745</v>
       </c>
       <c r="T13">
-        <v>2.184557915664042</v>
+        <v>2.184557915664045</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1296,58 +1308,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-0.000614804906177223</v>
+        <v>-0.001881162476360882</v>
       </c>
       <c r="D14">
-        <v>-0.001881162476360879</v>
+        <v>-0.0006148049061772164</v>
       </c>
       <c r="E14">
-        <v>0.2177545409409841</v>
+        <v>0.2177545409409837</v>
       </c>
       <c r="F14">
-        <v>-0.000614804906177223</v>
+        <v>-0.001881162476360882</v>
       </c>
       <c r="G14">
-        <v>-0.005609062275896857</v>
+        <v>0.009354820609377035</v>
       </c>
       <c r="H14">
-        <v>-0.0001539663275807752</v>
+        <v>-0.0006148049061772164</v>
       </c>
       <c r="I14">
-        <v>0.009354820609377056</v>
+        <v>-0.0001539663275807757</v>
       </c>
       <c r="J14">
-        <v>-0.001881162476360879</v>
+        <v>-0.005609062275896851</v>
       </c>
       <c r="K14">
-        <v>-0.000614804906177223</v>
+        <v>-0.0006148049061772164</v>
       </c>
       <c r="L14">
-        <v>0.2177545409409841</v>
+        <v>0.2177545409409837</v>
       </c>
       <c r="M14">
-        <v>0.1079366892323116</v>
+        <v>0.1079366892323114</v>
       </c>
       <c r="N14">
-        <v>0.1079366892323116</v>
+        <v>0.1079366892323114</v>
       </c>
       <c r="O14">
-        <v>0.07190647071234747</v>
+        <v>0.07190647071234736</v>
       </c>
       <c r="P14">
-        <v>0.07175285785281532</v>
+        <v>0.07175285785281521</v>
       </c>
       <c r="Q14">
-        <v>0.07175285785281532</v>
+        <v>0.07175285785281521</v>
       </c>
       <c r="R14">
-        <v>0.05366094216306719</v>
+        <v>0.0536609421630671</v>
       </c>
       <c r="S14">
-        <v>0.05366094216306719</v>
+        <v>0.0536609421630671</v>
       </c>
       <c r="T14">
-        <v>0.0364750609273909</v>
+        <v>0.03647506092739084</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>-0.002980182134650039</v>
+      </c>
+      <c r="D15">
         <v>0.05920021582815116</v>
-      </c>
-      <c r="D15">
-        <v>-0.00298018213465004</v>
       </c>
       <c r="E15">
         <v>0.2195736007113993</v>
       </c>
       <c r="F15">
+        <v>-0.002980182134650039</v>
+      </c>
+      <c r="G15">
+        <v>1.880683109819566</v>
+      </c>
+      <c r="H15">
         <v>0.05920021582815116</v>
       </c>
-      <c r="G15">
-        <v>0.002781329987307487</v>
-      </c>
-      <c r="H15">
-        <v>0.001041557758840851</v>
-      </c>
       <c r="I15">
-        <v>1.880683109819565</v>
+        <v>0.001041557758840849</v>
       </c>
       <c r="J15">
-        <v>-0.00298018213465004</v>
+        <v>0.002781329987307488</v>
       </c>
       <c r="K15">
         <v>0.05920021582815116</v>
@@ -1420,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.073135262530279</v>
+        <v>5.904330445833563</v>
       </c>
       <c r="D16">
-        <v>1.144589141489577</v>
+        <v>3.992084087255759</v>
       </c>
       <c r="E16">
-        <v>1.033568966548229</v>
+        <v>3.066305699277802</v>
       </c>
       <c r="F16">
-        <v>1.073135262530279</v>
+        <v>5.904330445833563</v>
       </c>
       <c r="G16">
-        <v>1.216036448171025</v>
+        <v>0.2365534625805042</v>
       </c>
       <c r="H16">
-        <v>0.9616726626945861</v>
+        <v>3.992084087255759</v>
       </c>
       <c r="I16">
-        <v>1.030753269494233</v>
+        <v>0.2067169259282126</v>
       </c>
       <c r="J16">
-        <v>1.144589141489577</v>
+        <v>8.742226507271026</v>
       </c>
       <c r="K16">
-        <v>1.073135262530279</v>
+        <v>3.992084087255759</v>
       </c>
       <c r="L16">
-        <v>1.033568966548229</v>
+        <v>3.066305699277802</v>
       </c>
       <c r="M16">
-        <v>1.089079054018903</v>
+        <v>4.485318072555683</v>
       </c>
       <c r="N16">
-        <v>1.089079054018903</v>
+        <v>4.485318072555683</v>
       </c>
       <c r="O16">
-        <v>1.046610256910798</v>
+        <v>3.059117690346526</v>
       </c>
       <c r="P16">
-        <v>1.083764456856029</v>
+        <v>4.320906744122375</v>
       </c>
       <c r="Q16">
-        <v>1.083764456856029</v>
+        <v>4.320906744122374</v>
       </c>
       <c r="R16">
-        <v>1.081107158274591</v>
+        <v>4.238701079905721</v>
       </c>
       <c r="S16">
-        <v>1.081107158274591</v>
+        <v>4.238701079905721</v>
       </c>
       <c r="T16">
-        <v>1.076625958487988</v>
+        <v>3.691369521357811</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.139140961224236</v>
+        <v>4.233642686050116</v>
       </c>
       <c r="D17">
-        <v>0.9424385652803201</v>
+        <v>4.287706310392934</v>
       </c>
       <c r="E17">
-        <v>1.066489958345487</v>
+        <v>2.355722936229507</v>
       </c>
       <c r="F17">
-        <v>1.139140961224236</v>
+        <v>4.233642686050116</v>
       </c>
       <c r="G17">
-        <v>0.9373915080736804</v>
+        <v>0.4800475172005385</v>
       </c>
       <c r="H17">
-        <v>0.9609853845349663</v>
+        <v>4.287706310392934</v>
       </c>
       <c r="I17">
-        <v>0.9927695383975423</v>
+        <v>0.4111935313788789</v>
       </c>
       <c r="J17">
-        <v>0.9424385652803201</v>
+        <v>6.151585026436281</v>
       </c>
       <c r="K17">
-        <v>1.139140961224236</v>
+        <v>4.287706310392934</v>
       </c>
       <c r="L17">
-        <v>1.066489958345487</v>
+        <v>2.355722936229507</v>
       </c>
       <c r="M17">
-        <v>1.004464261812904</v>
+        <v>3.294682811139811</v>
       </c>
       <c r="N17">
-        <v>1.004464261812904</v>
+        <v>3.294682811139811</v>
       </c>
       <c r="O17">
-        <v>0.9899713027202578</v>
+        <v>2.333519717886167</v>
       </c>
       <c r="P17">
-        <v>1.049356494950014</v>
+        <v>3.625690644224186</v>
       </c>
       <c r="Q17">
-        <v>1.049356494950014</v>
+        <v>3.625690644224186</v>
       </c>
       <c r="R17">
-        <v>1.07180261151857</v>
+        <v>3.791194560766373</v>
       </c>
       <c r="S17">
-        <v>1.07180261151857</v>
+        <v>3.791194560766373</v>
       </c>
       <c r="T17">
-        <v>1.006535985976039</v>
+        <v>2.986649667948043</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.761919575526657</v>
+        <v>1.329277793785018</v>
       </c>
       <c r="D18">
-        <v>0.837718159391482</v>
+        <v>4.58455862205234</v>
       </c>
       <c r="E18">
-        <v>1.236924881675631</v>
+        <v>0.723544556426467</v>
       </c>
       <c r="F18">
-        <v>1.761919575526657</v>
+        <v>1.329277793785018</v>
       </c>
       <c r="G18">
-        <v>2.104968163736</v>
+        <v>0.6547795474358351</v>
       </c>
       <c r="H18">
-        <v>1.159225296265135</v>
+        <v>4.58455862205234</v>
       </c>
       <c r="I18">
-        <v>1.312373877871421</v>
+        <v>0.720376001842591</v>
       </c>
       <c r="J18">
-        <v>0.837718159391482</v>
+        <v>0.749538556246591</v>
       </c>
       <c r="K18">
-        <v>1.761919575526657</v>
+        <v>4.58455862205234</v>
       </c>
       <c r="L18">
-        <v>1.236924881675631</v>
+        <v>0.723544556426467</v>
       </c>
       <c r="M18">
-        <v>1.037321520533556</v>
+        <v>1.026411175105742</v>
       </c>
       <c r="N18">
-        <v>1.037321520533556</v>
+        <v>1.026411175105742</v>
       </c>
       <c r="O18">
-        <v>1.077956112444083</v>
+        <v>0.9243994506846919</v>
       </c>
       <c r="P18">
-        <v>1.278854205531257</v>
+        <v>2.212460324087941</v>
       </c>
       <c r="Q18">
-        <v>1.278854205531256</v>
+        <v>2.212460324087941</v>
       </c>
       <c r="R18">
-        <v>1.399620548030106</v>
+        <v>2.805484898579041</v>
       </c>
       <c r="S18">
-        <v>1.399620548030106</v>
+        <v>2.805484898579041</v>
       </c>
       <c r="T18">
-        <v>1.402188325744388</v>
+        <v>1.46034584629814</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.868921440030302</v>
+      </c>
+      <c r="D19">
+        <v>6.137241793580719</v>
+      </c>
+      <c r="E19">
+        <v>0.9625580799199204</v>
+      </c>
+      <c r="F19">
+        <v>1.868921440030302</v>
+      </c>
+      <c r="G19">
+        <v>0.9590543941968346</v>
+      </c>
+      <c r="H19">
+        <v>6.137241793580719</v>
+      </c>
+      <c r="I19">
+        <v>0.7830765472027048</v>
+      </c>
+      <c r="J19">
+        <v>1.40386507527188</v>
+      </c>
+      <c r="K19">
+        <v>6.137241793580719</v>
+      </c>
+      <c r="L19">
+        <v>0.9625580799199204</v>
+      </c>
+      <c r="M19">
+        <v>1.415739759975111</v>
+      </c>
+      <c r="N19">
+        <v>1.415739759975111</v>
+      </c>
+      <c r="O19">
+        <v>1.204852022384309</v>
+      </c>
+      <c r="P19">
+        <v>2.989573771176981</v>
+      </c>
+      <c r="Q19">
+        <v>2.989573771176981</v>
+      </c>
+      <c r="R19">
+        <v>3.776490776777915</v>
+      </c>
+      <c r="S19">
+        <v>3.776490776777915</v>
+      </c>
+      <c r="T19">
+        <v>2.019119555033727</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.144589141489582</v>
+      </c>
+      <c r="D20">
+        <v>1.073135262530278</v>
+      </c>
+      <c r="E20">
+        <v>1.033568966548231</v>
+      </c>
+      <c r="F20">
+        <v>1.144589141489582</v>
+      </c>
+      <c r="G20">
+        <v>1.030753269494233</v>
+      </c>
+      <c r="H20">
+        <v>1.073135262530278</v>
+      </c>
+      <c r="I20">
+        <v>0.9616726626945857</v>
+      </c>
+      <c r="J20">
+        <v>1.21603644817103</v>
+      </c>
+      <c r="K20">
+        <v>1.073135262530278</v>
+      </c>
+      <c r="L20">
+        <v>1.033568966548231</v>
+      </c>
+      <c r="M20">
+        <v>1.089079054018907</v>
+      </c>
+      <c r="N20">
+        <v>1.089079054018907</v>
+      </c>
+      <c r="O20">
+        <v>1.0466102569108</v>
+      </c>
+      <c r="P20">
+        <v>1.083764456856031</v>
+      </c>
+      <c r="Q20">
+        <v>1.083764456856031</v>
+      </c>
+      <c r="R20">
+        <v>1.081107158274592</v>
+      </c>
+      <c r="S20">
+        <v>1.081107158274592</v>
+      </c>
+      <c r="T20">
+        <v>1.07662595848799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9424385652803237</v>
+      </c>
+      <c r="D21">
+        <v>1.139140961224233</v>
+      </c>
+      <c r="E21">
+        <v>1.066489958345489</v>
+      </c>
+      <c r="F21">
+        <v>0.9424385652803237</v>
+      </c>
+      <c r="G21">
+        <v>0.9927695383975436</v>
+      </c>
+      <c r="H21">
+        <v>1.139140961224233</v>
+      </c>
+      <c r="I21">
+        <v>0.9609853845349656</v>
+      </c>
+      <c r="J21">
+        <v>0.9373915080736852</v>
+      </c>
+      <c r="K21">
+        <v>1.139140961224233</v>
+      </c>
+      <c r="L21">
+        <v>1.066489958345489</v>
+      </c>
+      <c r="M21">
+        <v>1.004464261812906</v>
+      </c>
+      <c r="N21">
+        <v>1.004464261812906</v>
+      </c>
+      <c r="O21">
+        <v>0.9899713027202592</v>
+      </c>
+      <c r="P21">
+        <v>1.049356494950015</v>
+      </c>
+      <c r="Q21">
+        <v>1.049356494950015</v>
+      </c>
+      <c r="R21">
+        <v>1.07180261151857</v>
+      </c>
+      <c r="S21">
+        <v>1.07180261151857</v>
+      </c>
+      <c r="T21">
+        <v>1.00653598597604</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.8377181593914946</v>
+      </c>
+      <c r="D22">
+        <v>1.761919575526657</v>
+      </c>
+      <c r="E22">
+        <v>1.23692488167563</v>
+      </c>
+      <c r="F22">
+        <v>0.8377181593914946</v>
+      </c>
+      <c r="G22">
+        <v>1.312373877871419</v>
+      </c>
+      <c r="H22">
+        <v>1.761919575526657</v>
+      </c>
+      <c r="I22">
+        <v>1.159225296265135</v>
+      </c>
+      <c r="J22">
+        <v>2.104968163736011</v>
+      </c>
+      <c r="K22">
+        <v>1.761919575526657</v>
+      </c>
+      <c r="L22">
+        <v>1.23692488167563</v>
+      </c>
+      <c r="M22">
+        <v>1.037321520533562</v>
+      </c>
+      <c r="N22">
+        <v>1.037321520533562</v>
+      </c>
+      <c r="O22">
+        <v>1.077956112444087</v>
+      </c>
+      <c r="P22">
+        <v>1.278854205531261</v>
+      </c>
+      <c r="Q22">
+        <v>1.278854205531261</v>
+      </c>
+      <c r="R22">
+        <v>1.39962054803011</v>
+      </c>
+      <c r="S22">
+        <v>1.39962054803011</v>
+      </c>
+      <c r="T22">
+        <v>1.402188325744391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>4.27853236296406</v>
+      </c>
+      <c r="D23">
         <v>1.389114020634176</v>
       </c>
-      <c r="D19">
+      <c r="E23">
+        <v>2.306846657390331</v>
+      </c>
+      <c r="F23">
         <v>4.27853236296406</v>
       </c>
-      <c r="E19">
+      <c r="G23">
+        <v>1.21704352474398</v>
+      </c>
+      <c r="H23">
+        <v>1.389114020634176</v>
+      </c>
+      <c r="I23">
+        <v>1.152731871165905</v>
+      </c>
+      <c r="J23">
+        <v>0.3596968135566403</v>
+      </c>
+      <c r="K23">
+        <v>1.389114020634176</v>
+      </c>
+      <c r="L23">
         <v>2.306846657390331</v>
       </c>
-      <c r="F19">
-        <v>1.389114020634176</v>
-      </c>
-      <c r="G19">
-        <v>0.3596968135566403</v>
-      </c>
-      <c r="H19">
-        <v>1.152731871165905</v>
-      </c>
-      <c r="I19">
-        <v>1.217043524743979</v>
-      </c>
-      <c r="J19">
-        <v>4.27853236296406</v>
-      </c>
-      <c r="K19">
-        <v>1.389114020634176</v>
-      </c>
-      <c r="L19">
-        <v>2.306846657390331</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>3.292689510177196</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>3.292689510177196</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>2.579370297173432</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>2.658164346996189</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>2.658164346996189</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>2.340901765405686</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>2.340901765405686</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.783994208409182</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/RGossF-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW03.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.452125741485345</v>
+        <v>1.206923144558115</v>
       </c>
       <c r="D3">
-        <v>1.295492266374951</v>
+        <v>7.650946273845518</v>
       </c>
       <c r="E3">
-        <v>1.150269633858089</v>
+        <v>0.9641759883504987</v>
       </c>
       <c r="F3">
-        <v>1.452125741485345</v>
+        <v>1.206923144558115</v>
       </c>
       <c r="G3">
-        <v>0.976623643827448</v>
+        <v>0.9091592524866955</v>
       </c>
       <c r="H3">
-        <v>1.295492266374951</v>
+        <v>7.650946273845518</v>
       </c>
       <c r="I3">
-        <v>0.9336899255913829</v>
+        <v>0.8623311964228705</v>
       </c>
       <c r="J3">
-        <v>1.548560020979328</v>
+        <v>1.168960671523445</v>
       </c>
       <c r="K3">
-        <v>1.295492266374951</v>
+        <v>7.650946273845518</v>
       </c>
       <c r="L3">
-        <v>1.150269633858089</v>
+        <v>0.9641759883504987</v>
       </c>
       <c r="M3">
-        <v>1.301197687671717</v>
+        <v>1.085549566454307</v>
       </c>
       <c r="N3">
-        <v>1.301197687671717</v>
+        <v>1.085549566454307</v>
       </c>
       <c r="O3">
-        <v>1.178695100311606</v>
+        <v>1.011143443110495</v>
       </c>
       <c r="P3">
-        <v>1.299295880572795</v>
+        <v>3.27401513558471</v>
       </c>
       <c r="Q3">
-        <v>1.299295880572795</v>
+        <v>3.274015135584711</v>
       </c>
       <c r="R3">
-        <v>1.298344977023334</v>
+        <v>4.368247920149913</v>
       </c>
       <c r="S3">
-        <v>1.298344977023334</v>
+        <v>4.368247920149913</v>
       </c>
       <c r="T3">
-        <v>1.226126872019424</v>
+        <v>2.127082754531191</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.871386903592938</v>
+        <v>1.045460856885906</v>
       </c>
       <c r="D4">
-        <v>1.3302430938643</v>
+        <v>6.053625970837182</v>
       </c>
       <c r="E4">
-        <v>1.285733242545227</v>
+        <v>0.9470774905898248</v>
       </c>
       <c r="F4">
-        <v>1.871386903592938</v>
+        <v>1.045460856885906</v>
       </c>
       <c r="G4">
-        <v>1.127661896990736</v>
+        <v>0.9408678592210394</v>
       </c>
       <c r="H4">
-        <v>1.3302430938643</v>
+        <v>6.053625970837182</v>
       </c>
       <c r="I4">
-        <v>0.9881563300975634</v>
+        <v>0.8451243627771289</v>
       </c>
       <c r="J4">
-        <v>2.251736062872274</v>
+        <v>1.057254904765066</v>
       </c>
       <c r="K4">
-        <v>1.3302430938643</v>
+        <v>6.053625970837182</v>
       </c>
       <c r="L4">
-        <v>1.285733242545227</v>
+        <v>0.9470774905898248</v>
       </c>
       <c r="M4">
-        <v>1.578560073069082</v>
+        <v>0.9962691737378655</v>
       </c>
       <c r="N4">
-        <v>1.578560073069082</v>
+        <v>0.9962691737378655</v>
       </c>
       <c r="O4">
-        <v>1.381758825411909</v>
+        <v>0.9458875700842867</v>
       </c>
       <c r="P4">
-        <v>1.495787746667488</v>
+        <v>2.682054772770971</v>
       </c>
       <c r="Q4">
-        <v>1.495787746667488</v>
+        <v>2.682054772770971</v>
       </c>
       <c r="R4">
-        <v>1.454401583466691</v>
+        <v>3.524947572287524</v>
       </c>
       <c r="S4">
-        <v>1.454401583466691</v>
+        <v>3.524947572287524</v>
       </c>
       <c r="T4">
-        <v>1.475819588327173</v>
+        <v>1.814901907512692</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>5.062552831278016</v>
+        <v>1.553201031340242</v>
       </c>
       <c r="D5">
-        <v>2.978031122509834</v>
+        <v>13.7217513659514</v>
       </c>
       <c r="E5">
-        <v>2.160744933283168</v>
+        <v>0.8209629414551487</v>
       </c>
       <c r="F5">
-        <v>5.062552831278016</v>
+        <v>1.553201031340242</v>
       </c>
       <c r="G5">
-        <v>1.135549128105724</v>
+        <v>0.8154966894462533</v>
       </c>
       <c r="H5">
-        <v>2.978031122509834</v>
+        <v>13.7217513659514</v>
       </c>
       <c r="I5">
-        <v>0.8218370522459507</v>
+        <v>0.538259782878015</v>
       </c>
       <c r="J5">
-        <v>0.805672669962617</v>
+        <v>0.3866543421646363</v>
       </c>
       <c r="K5">
-        <v>2.978031122509834</v>
+        <v>13.7217513659514</v>
       </c>
       <c r="L5">
-        <v>2.160744933283168</v>
+        <v>0.8209629414551487</v>
       </c>
       <c r="M5">
-        <v>3.611648882280592</v>
+        <v>1.187081986397696</v>
       </c>
       <c r="N5">
-        <v>3.611648882280592</v>
+        <v>1.187081986397696</v>
       </c>
       <c r="O5">
-        <v>2.681711605602378</v>
+        <v>0.970807918557802</v>
       </c>
       <c r="P5">
-        <v>3.400442962357006</v>
+        <v>5.365305112915597</v>
       </c>
       <c r="Q5">
-        <v>3.400442962357006</v>
+        <v>5.365305112915597</v>
       </c>
       <c r="R5">
-        <v>3.294840002395213</v>
+        <v>7.454416676174549</v>
       </c>
       <c r="S5">
-        <v>3.294840002395213</v>
+        <v>7.454416676174549</v>
       </c>
       <c r="T5">
-        <v>2.160731289564218</v>
+        <v>2.972721025539283</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>10.53646014905571</v>
+        <v>6.880338950107441</v>
       </c>
       <c r="D6">
-        <v>6.141536622625311</v>
+        <v>20.23212660609073</v>
       </c>
       <c r="E6">
-        <v>0.1983221858562887</v>
+        <v>0.9315237405829542</v>
       </c>
       <c r="F6">
-        <v>10.53646014905571</v>
+        <v>6.880338950107441</v>
       </c>
       <c r="G6">
-        <v>1.679612278469824</v>
+        <v>0.3106150653106817</v>
       </c>
       <c r="H6">
-        <v>6.141536622625311</v>
+        <v>20.23212660609073</v>
       </c>
       <c r="I6">
-        <v>1.581953353157452</v>
+        <v>1.330672608300705</v>
       </c>
       <c r="J6">
-        <v>0.9160690244347376</v>
+        <v>0.2942958005397727</v>
       </c>
       <c r="K6">
-        <v>6.141536622625311</v>
+        <v>20.23212660609073</v>
       </c>
       <c r="L6">
-        <v>0.1983221858562887</v>
+        <v>0.9315237405829542</v>
       </c>
       <c r="M6">
-        <v>5.367391167455997</v>
+        <v>3.905931345345198</v>
       </c>
       <c r="N6">
-        <v>5.367391167455997</v>
+        <v>3.905931345345198</v>
       </c>
       <c r="O6">
-        <v>4.105578562689815</v>
+        <v>3.047511766330367</v>
       </c>
       <c r="P6">
-        <v>5.625439652512434</v>
+        <v>9.347996432260375</v>
       </c>
       <c r="Q6">
-        <v>5.625439652512434</v>
+        <v>9.347996432260375</v>
       </c>
       <c r="R6">
-        <v>5.754463895040653</v>
+        <v>12.06902897571797</v>
       </c>
       <c r="S6">
-        <v>5.754463895040653</v>
+        <v>12.06902897571797</v>
       </c>
       <c r="T6">
-        <v>3.508992268933219</v>
+        <v>4.996595461822047</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.072572698842061</v>
+        <v>15.96013205380569</v>
       </c>
       <c r="D7">
-        <v>1.154966495101525</v>
+        <v>4.74506768431706</v>
       </c>
       <c r="E7">
-        <v>1.044937235715587</v>
+        <v>0.006084575469521429</v>
       </c>
       <c r="F7">
-        <v>1.072572698842061</v>
+        <v>15.96013205380569</v>
       </c>
       <c r="G7">
-        <v>1.030770772251524</v>
+        <v>0.0005850652348316378</v>
       </c>
       <c r="H7">
-        <v>1.154966495101525</v>
+        <v>4.74506768431706</v>
       </c>
       <c r="I7">
-        <v>0.951383605261601</v>
+        <v>7.390445631099071</v>
       </c>
       <c r="J7">
-        <v>1.079430957471956</v>
+        <v>0.007050866032266187</v>
       </c>
       <c r="K7">
-        <v>1.154966495101525</v>
+        <v>4.74506768431706</v>
       </c>
       <c r="L7">
-        <v>1.044937235715587</v>
+        <v>0.006084575469521429</v>
       </c>
       <c r="M7">
-        <v>1.058754967278824</v>
+        <v>7.983108314637608</v>
       </c>
       <c r="N7">
-        <v>1.058754967278824</v>
+        <v>7.983108314637608</v>
       </c>
       <c r="O7">
-        <v>1.022964513273083</v>
+        <v>7.785554086791429</v>
       </c>
       <c r="P7">
-        <v>1.090825476553057</v>
+        <v>6.903761437864092</v>
       </c>
       <c r="Q7">
-        <v>1.090825476553057</v>
+        <v>6.903761437864092</v>
       </c>
       <c r="R7">
-        <v>1.106860731190174</v>
+        <v>6.364087999477334</v>
       </c>
       <c r="S7">
-        <v>1.106860731190174</v>
+        <v>6.364087999477334</v>
       </c>
       <c r="T7">
-        <v>1.055676960774042</v>
+        <v>4.684894312659741</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9979432565812978</v>
+        <v>15.87384513864363</v>
       </c>
       <c r="D8">
-        <v>1.333973750151458</v>
+        <v>5.183045365796279</v>
       </c>
       <c r="E8">
-        <v>1.053497508827163</v>
+        <v>0.005998354468898035</v>
       </c>
       <c r="F8">
-        <v>0.9979432565812978</v>
+        <v>15.87384513864363</v>
       </c>
       <c r="G8">
-        <v>1.040257258505443</v>
+        <v>0.0005670616796163971</v>
       </c>
       <c r="H8">
-        <v>1.333973750151458</v>
+        <v>5.183045365796279</v>
       </c>
       <c r="I8">
-        <v>0.9576742175764517</v>
+        <v>7.348346788132526</v>
       </c>
       <c r="J8">
-        <v>1.052196321400933</v>
+        <v>0.007090617060185584</v>
       </c>
       <c r="K8">
-        <v>1.333973750151458</v>
+        <v>5.183045365796279</v>
       </c>
       <c r="L8">
-        <v>1.053497508827163</v>
+        <v>0.005998354468898035</v>
       </c>
       <c r="M8">
-        <v>1.02572038270423</v>
+        <v>7.939921746556262</v>
       </c>
       <c r="N8">
-        <v>1.02572038270423</v>
+        <v>7.939921746556262</v>
       </c>
       <c r="O8">
-        <v>1.003038327661637</v>
+        <v>7.742730093748349</v>
       </c>
       <c r="P8">
-        <v>1.128471505186639</v>
+        <v>7.020962952969601</v>
       </c>
       <c r="Q8">
-        <v>1.128471505186639</v>
+        <v>7.020962952969601</v>
       </c>
       <c r="R8">
-        <v>1.179847066427844</v>
+        <v>6.56148355617627</v>
       </c>
       <c r="S8">
-        <v>1.179847066427844</v>
+        <v>6.56148355617627</v>
       </c>
       <c r="T8">
-        <v>1.072590385507124</v>
+        <v>4.736482220963523</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.170784789548284</v>
+        <v>15.81785875602164</v>
       </c>
       <c r="D9">
-        <v>1.510475023447335</v>
+        <v>5.647037766103626</v>
       </c>
       <c r="E9">
-        <v>1.003872677976649</v>
+        <v>0.005912173138699248</v>
       </c>
       <c r="F9">
-        <v>1.170784789548284</v>
+        <v>15.81785875602164</v>
       </c>
       <c r="G9">
-        <v>1.040393402922461</v>
+        <v>0.0005489409335132253</v>
       </c>
       <c r="H9">
-        <v>1.510475023447335</v>
+        <v>5.647037766103626</v>
       </c>
       <c r="I9">
-        <v>0.8908227406339652</v>
+        <v>7.315602550080279</v>
       </c>
       <c r="J9">
-        <v>0.9021018654073194</v>
+        <v>0.007114009872723977</v>
       </c>
       <c r="K9">
-        <v>1.510475023447335</v>
+        <v>5.647037766103626</v>
       </c>
       <c r="L9">
-        <v>1.003872677976649</v>
+        <v>0.005912173138699248</v>
       </c>
       <c r="M9">
-        <v>1.087328733762467</v>
+        <v>7.911885464580171</v>
       </c>
       <c r="N9">
-        <v>1.087328733762467</v>
+        <v>7.911885464580171</v>
       </c>
       <c r="O9">
-        <v>1.021826736052966</v>
+        <v>7.713124493080207</v>
       </c>
       <c r="P9">
-        <v>1.228377496990756</v>
+        <v>7.156936231754656</v>
       </c>
       <c r="Q9">
-        <v>1.228377496990756</v>
+        <v>7.156936231754656</v>
       </c>
       <c r="R9">
-        <v>1.298901878604901</v>
+        <v>6.779461615341899</v>
       </c>
       <c r="S9">
-        <v>1.298901878604901</v>
+        <v>6.779461615341899</v>
       </c>
       <c r="T9">
-        <v>1.086408416656002</v>
+        <v>4.799012366025081</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.835955417661641</v>
+        <v>15.58863522601914</v>
       </c>
       <c r="D10">
-        <v>2.157090851817953</v>
+        <v>7.561001452577699</v>
       </c>
       <c r="E10">
-        <v>1.051598246964685</v>
+        <v>0.005581840319659644</v>
       </c>
       <c r="F10">
-        <v>1.835955417661641</v>
+        <v>15.58863522601914</v>
       </c>
       <c r="G10">
-        <v>0.9735831854508762</v>
+        <v>0.000462370233551517</v>
       </c>
       <c r="H10">
-        <v>2.157090851817953</v>
+        <v>7.561001452577699</v>
       </c>
       <c r="I10">
-        <v>0.8705084761997125</v>
+        <v>7.198222808044324</v>
       </c>
       <c r="J10">
-        <v>0.7243580293298465</v>
+        <v>0.007166270720007988</v>
       </c>
       <c r="K10">
-        <v>2.157090851817953</v>
+        <v>7.561001452577699</v>
       </c>
       <c r="L10">
-        <v>1.051598246964685</v>
+        <v>0.005581840319659644</v>
       </c>
       <c r="M10">
-        <v>1.443776832313163</v>
+        <v>7.797108533169399</v>
       </c>
       <c r="N10">
-        <v>1.443776832313163</v>
+        <v>7.797108533169399</v>
       </c>
       <c r="O10">
-        <v>1.252687380275346</v>
+        <v>7.597479958127707</v>
       </c>
       <c r="P10">
-        <v>1.681548172148093</v>
+        <v>7.718406172972166</v>
       </c>
       <c r="Q10">
-        <v>1.681548172148093</v>
+        <v>7.718406172972165</v>
       </c>
       <c r="R10">
-        <v>1.800433842065558</v>
+        <v>7.679054992873549</v>
       </c>
       <c r="S10">
-        <v>1.800433842065558</v>
+        <v>7.679054992873549</v>
       </c>
       <c r="T10">
-        <v>1.268849034570786</v>
+        <v>5.060178327985731</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>3.422720996974683</v>
+        <v>1.383873863486454</v>
       </c>
       <c r="D11">
-        <v>3.06148866909023</v>
+        <v>1.192561158651409</v>
       </c>
       <c r="E11">
-        <v>0.9598420756086152</v>
+        <v>1.137570806386852</v>
       </c>
       <c r="F11">
-        <v>3.422720996974683</v>
+        <v>1.383873863486454</v>
       </c>
       <c r="G11">
-        <v>1.037594015808032</v>
+        <v>1.006317190375943</v>
       </c>
       <c r="H11">
-        <v>3.06148866909023</v>
+        <v>1.192561158651409</v>
       </c>
       <c r="I11">
-        <v>1.064044881497058</v>
+        <v>0.9347666529051475</v>
       </c>
       <c r="J11">
-        <v>0.1782035295892721</v>
+        <v>1.492012864715124</v>
       </c>
       <c r="K11">
-        <v>3.06148866909023</v>
+        <v>1.192561158651409</v>
       </c>
       <c r="L11">
-        <v>0.9598420756086152</v>
+        <v>1.137570806386852</v>
       </c>
       <c r="M11">
-        <v>2.191281536291649</v>
+        <v>1.260722334936653</v>
       </c>
       <c r="N11">
-        <v>2.191281536291649</v>
+        <v>1.260722334936653</v>
       </c>
       <c r="O11">
-        <v>1.815535984693452</v>
+        <v>1.152070440926151</v>
       </c>
       <c r="P11">
-        <v>2.481350580557843</v>
+        <v>1.238001942841571</v>
       </c>
       <c r="Q11">
-        <v>2.481350580557843</v>
+        <v>1.238001942841571</v>
       </c>
       <c r="R11">
-        <v>2.62638510269094</v>
+        <v>1.226641746794031</v>
       </c>
       <c r="S11">
-        <v>2.62638510269094</v>
+        <v>1.226641746794031</v>
       </c>
       <c r="T11">
-        <v>1.620649028094649</v>
+        <v>1.191183756086821</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.004554680423565737</v>
+        <v>1.317202435478882</v>
       </c>
       <c r="D12">
-        <v>-0.0003421703317368952</v>
+        <v>1.162020581806354</v>
       </c>
       <c r="E12">
-        <v>0.5690785811987971</v>
+        <v>1.097765303385577</v>
       </c>
       <c r="F12">
-        <v>0.004554680423565737</v>
+        <v>1.317202435478882</v>
       </c>
       <c r="G12">
-        <v>1.197160491324909</v>
+        <v>1.000282780739576</v>
       </c>
       <c r="H12">
-        <v>-0.0003421703317368952</v>
+        <v>1.162020581806354</v>
       </c>
       <c r="I12">
-        <v>0.2984651631758184</v>
+        <v>0.955287762886679</v>
       </c>
       <c r="J12">
-        <v>-0.002882229086911463</v>
+        <v>1.299809200319498</v>
       </c>
       <c r="K12">
-        <v>-0.0003421703317368952</v>
+        <v>1.162020581806354</v>
       </c>
       <c r="L12">
-        <v>0.5690785811987971</v>
+        <v>1.097765303385577</v>
       </c>
       <c r="M12">
-        <v>0.2868166308111814</v>
+        <v>1.20748386943223</v>
       </c>
       <c r="N12">
-        <v>0.2868166308111814</v>
+        <v>1.20748386943223</v>
       </c>
       <c r="O12">
-        <v>0.2906994749327271</v>
+        <v>1.123418500583713</v>
       </c>
       <c r="P12">
-        <v>0.1910970304302086</v>
+        <v>1.192329440223604</v>
       </c>
       <c r="Q12">
-        <v>0.1910970304302086</v>
+        <v>1.192329440223604</v>
       </c>
       <c r="R12">
-        <v>0.1432372302397223</v>
+        <v>1.184752225619292</v>
       </c>
       <c r="S12">
-        <v>0.1432372302397223</v>
+        <v>1.184752225619292</v>
       </c>
       <c r="T12">
-        <v>0.3443390861174069</v>
+        <v>1.138728010769428</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.697035567127566</v>
+        <v>2.418851834983507</v>
       </c>
       <c r="D13">
-        <v>3.949016081694854</v>
+        <v>2.719783141856121</v>
       </c>
       <c r="E13">
-        <v>-0.0002601929222928995</v>
+        <v>0.8188391440923436</v>
       </c>
       <c r="F13">
-        <v>1.697035567127566</v>
+        <v>2.418851834983507</v>
       </c>
       <c r="G13">
-        <v>0.2773127339309186</v>
+        <v>1.371951550771219</v>
       </c>
       <c r="H13">
-        <v>3.949016081694854</v>
+        <v>2.719783141856121</v>
       </c>
       <c r="I13">
-        <v>1.399430878682573</v>
+        <v>1.03377455989261</v>
       </c>
       <c r="J13">
-        <v>5.784812425470655</v>
+        <v>0.4888488448141001</v>
       </c>
       <c r="K13">
-        <v>3.949016081694854</v>
+        <v>2.719783141856121</v>
       </c>
       <c r="L13">
-        <v>-0.0002601929222928995</v>
+        <v>0.8188391440923436</v>
       </c>
       <c r="M13">
-        <v>0.8483876871026366</v>
+        <v>1.618845489537925</v>
       </c>
       <c r="N13">
-        <v>0.8483876871026366</v>
+        <v>1.618845489537925</v>
       </c>
       <c r="O13">
-        <v>1.032068750962615</v>
+        <v>1.42382184632282</v>
       </c>
       <c r="P13">
-        <v>1.881930485300042</v>
+        <v>1.985824706977324</v>
       </c>
       <c r="Q13">
-        <v>1.881930485300042</v>
+        <v>1.985824706977324</v>
       </c>
       <c r="R13">
-        <v>2.398701884398745</v>
+        <v>2.169314315697023</v>
       </c>
       <c r="S13">
-        <v>2.398701884398745</v>
+        <v>2.169314315697023</v>
       </c>
       <c r="T13">
-        <v>2.184557915664045</v>
+        <v>1.475341512734984</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-0.001881162476360882</v>
+        <v>7.000114271646132</v>
       </c>
       <c r="D14">
-        <v>-0.0006148049061772164</v>
+        <v>4.644098981517678</v>
       </c>
       <c r="E14">
-        <v>0.2177545409409837</v>
+        <v>1.858489920028666</v>
       </c>
       <c r="F14">
-        <v>-0.001881162476360882</v>
+        <v>7.000114271646132</v>
       </c>
       <c r="G14">
-        <v>0.009354820609377035</v>
+        <v>0.4173260059330713</v>
       </c>
       <c r="H14">
-        <v>-0.0006148049061772164</v>
+        <v>4.644098981517678</v>
       </c>
       <c r="I14">
-        <v>-0.0001539663275807757</v>
+        <v>1.136310593195965</v>
       </c>
       <c r="J14">
-        <v>-0.005609062275896851</v>
+        <v>0.4936209782873103</v>
       </c>
       <c r="K14">
-        <v>-0.0006148049061772164</v>
+        <v>4.644098981517678</v>
       </c>
       <c r="L14">
-        <v>0.2177545409409837</v>
+        <v>1.858489920028666</v>
       </c>
       <c r="M14">
-        <v>0.1079366892323114</v>
+        <v>4.429302095837399</v>
       </c>
       <c r="N14">
-        <v>0.1079366892323114</v>
+        <v>4.429302095837399</v>
       </c>
       <c r="O14">
-        <v>0.07190647071234736</v>
+        <v>3.331638261623588</v>
       </c>
       <c r="P14">
-        <v>0.07175285785281521</v>
+        <v>4.500901057730825</v>
       </c>
       <c r="Q14">
-        <v>0.07175285785281521</v>
+        <v>4.500901057730825</v>
       </c>
       <c r="R14">
-        <v>0.0536609421630671</v>
+        <v>4.536700538677539</v>
       </c>
       <c r="S14">
-        <v>0.0536609421630671</v>
+        <v>4.536700538677539</v>
       </c>
       <c r="T14">
-        <v>0.03647506092739084</v>
+        <v>2.591660125101471</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>-0.002980182134650039</v>
+        <v>1.452125741485345</v>
       </c>
       <c r="D15">
-        <v>0.05920021582815116</v>
+        <v>1.295492266374951</v>
       </c>
       <c r="E15">
-        <v>0.2195736007113993</v>
+        <v>1.150269633858089</v>
       </c>
       <c r="F15">
-        <v>-0.002980182134650039</v>
+        <v>1.452125741485345</v>
       </c>
       <c r="G15">
-        <v>1.880683109819566</v>
+        <v>0.976623643827448</v>
       </c>
       <c r="H15">
-        <v>0.05920021582815116</v>
+        <v>1.295492266374951</v>
       </c>
       <c r="I15">
-        <v>0.001041557758840849</v>
+        <v>0.9336899255913829</v>
       </c>
       <c r="J15">
-        <v>0.002781329987307488</v>
+        <v>1.548560020979328</v>
       </c>
       <c r="K15">
-        <v>0.05920021582815116</v>
+        <v>1.295492266374951</v>
       </c>
       <c r="L15">
-        <v>0.2195736007113993</v>
+        <v>1.150269633858089</v>
       </c>
       <c r="M15">
-        <v>0.1082967092883746</v>
+        <v>1.301197687671717</v>
       </c>
       <c r="N15">
-        <v>0.1082967092883746</v>
+        <v>1.301197687671717</v>
       </c>
       <c r="O15">
-        <v>0.07254499211186337</v>
+        <v>1.178695100311606</v>
       </c>
       <c r="P15">
-        <v>0.09193121146830013</v>
+        <v>1.299295880572795</v>
       </c>
       <c r="Q15">
-        <v>0.09193121146830013</v>
+        <v>1.299295880572795</v>
       </c>
       <c r="R15">
-        <v>0.08374846255826289</v>
+        <v>1.298344977023334</v>
       </c>
       <c r="S15">
-        <v>0.08374846255826289</v>
+        <v>1.298344977023334</v>
       </c>
       <c r="T15">
-        <v>0.360049938661769</v>
+        <v>1.226126872019424</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>5.904330445833563</v>
+        <v>1.871386903592938</v>
       </c>
       <c r="D16">
-        <v>3.992084087255759</v>
+        <v>1.3302430938643</v>
       </c>
       <c r="E16">
-        <v>3.066305699277802</v>
+        <v>1.285733242545227</v>
       </c>
       <c r="F16">
-        <v>5.904330445833563</v>
+        <v>1.871386903592938</v>
       </c>
       <c r="G16">
-        <v>0.2365534625805042</v>
+        <v>1.127661896990736</v>
       </c>
       <c r="H16">
-        <v>3.992084087255759</v>
+        <v>1.3302430938643</v>
       </c>
       <c r="I16">
-        <v>0.2067169259282126</v>
+        <v>0.9881563300975634</v>
       </c>
       <c r="J16">
-        <v>8.742226507271026</v>
+        <v>2.251736062872274</v>
       </c>
       <c r="K16">
-        <v>3.992084087255759</v>
+        <v>1.3302430938643</v>
       </c>
       <c r="L16">
-        <v>3.066305699277802</v>
+        <v>1.285733242545227</v>
       </c>
       <c r="M16">
-        <v>4.485318072555683</v>
+        <v>1.578560073069082</v>
       </c>
       <c r="N16">
-        <v>4.485318072555683</v>
+        <v>1.578560073069082</v>
       </c>
       <c r="O16">
-        <v>3.059117690346526</v>
+        <v>1.381758825411909</v>
       </c>
       <c r="P16">
-        <v>4.320906744122375</v>
+        <v>1.495787746667488</v>
       </c>
       <c r="Q16">
-        <v>4.320906744122374</v>
+        <v>1.495787746667488</v>
       </c>
       <c r="R16">
-        <v>4.238701079905721</v>
+        <v>1.454401583466691</v>
       </c>
       <c r="S16">
-        <v>4.238701079905721</v>
+        <v>1.454401583466691</v>
       </c>
       <c r="T16">
-        <v>3.691369521357811</v>
+        <v>1.475819588327173</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>4.233642686050116</v>
+        <v>5.062552831278016</v>
       </c>
       <c r="D17">
-        <v>4.287706310392934</v>
+        <v>2.978031122509834</v>
       </c>
       <c r="E17">
-        <v>2.355722936229507</v>
+        <v>2.160744933283168</v>
       </c>
       <c r="F17">
-        <v>4.233642686050116</v>
+        <v>5.062552831278016</v>
       </c>
       <c r="G17">
-        <v>0.4800475172005385</v>
+        <v>1.135549128105724</v>
       </c>
       <c r="H17">
-        <v>4.287706310392934</v>
+        <v>2.978031122509834</v>
       </c>
       <c r="I17">
-        <v>0.4111935313788789</v>
+        <v>0.8218370522459507</v>
       </c>
       <c r="J17">
-        <v>6.151585026436281</v>
+        <v>0.805672669962617</v>
       </c>
       <c r="K17">
-        <v>4.287706310392934</v>
+        <v>2.978031122509834</v>
       </c>
       <c r="L17">
-        <v>2.355722936229507</v>
+        <v>2.160744933283168</v>
       </c>
       <c r="M17">
-        <v>3.294682811139811</v>
+        <v>3.611648882280592</v>
       </c>
       <c r="N17">
-        <v>3.294682811139811</v>
+        <v>3.611648882280592</v>
       </c>
       <c r="O17">
-        <v>2.333519717886167</v>
+        <v>2.681711605602378</v>
       </c>
       <c r="P17">
-        <v>3.625690644224186</v>
+        <v>3.400442962357006</v>
       </c>
       <c r="Q17">
-        <v>3.625690644224186</v>
+        <v>3.400442962357006</v>
       </c>
       <c r="R17">
-        <v>3.791194560766373</v>
+        <v>3.294840002395213</v>
       </c>
       <c r="S17">
-        <v>3.791194560766373</v>
+        <v>3.294840002395213</v>
       </c>
       <c r="T17">
-        <v>2.986649667948043</v>
+        <v>2.160731289564218</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.329277793785018</v>
+        <v>10.53646014905571</v>
       </c>
       <c r="D18">
-        <v>4.58455862205234</v>
+        <v>6.141536622625311</v>
       </c>
       <c r="E18">
-        <v>0.723544556426467</v>
+        <v>0.1983221858562887</v>
       </c>
       <c r="F18">
-        <v>1.329277793785018</v>
+        <v>10.53646014905571</v>
       </c>
       <c r="G18">
-        <v>0.6547795474358351</v>
+        <v>1.679612278469824</v>
       </c>
       <c r="H18">
-        <v>4.58455862205234</v>
+        <v>6.141536622625311</v>
       </c>
       <c r="I18">
-        <v>0.720376001842591</v>
+        <v>1.581953353157452</v>
       </c>
       <c r="J18">
-        <v>0.749538556246591</v>
+        <v>0.9160690244347376</v>
       </c>
       <c r="K18">
-        <v>4.58455862205234</v>
+        <v>6.141536622625311</v>
       </c>
       <c r="L18">
-        <v>0.723544556426467</v>
+        <v>0.1983221858562887</v>
       </c>
       <c r="M18">
-        <v>1.026411175105742</v>
+        <v>5.367391167455997</v>
       </c>
       <c r="N18">
-        <v>1.026411175105742</v>
+        <v>5.367391167455997</v>
       </c>
       <c r="O18">
-        <v>0.9243994506846919</v>
+        <v>4.105578562689815</v>
       </c>
       <c r="P18">
-        <v>2.212460324087941</v>
+        <v>5.625439652512434</v>
       </c>
       <c r="Q18">
-        <v>2.212460324087941</v>
+        <v>5.625439652512434</v>
       </c>
       <c r="R18">
-        <v>2.805484898579041</v>
+        <v>5.754463895040653</v>
       </c>
       <c r="S18">
-        <v>2.805484898579041</v>
+        <v>5.754463895040653</v>
       </c>
       <c r="T18">
-        <v>1.46034584629814</v>
+        <v>3.508992268933219</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.868921440030302</v>
+        <v>1.072572698842061</v>
       </c>
       <c r="D19">
-        <v>6.137241793580719</v>
+        <v>1.154966495101525</v>
       </c>
       <c r="E19">
-        <v>0.9625580799199204</v>
+        <v>1.044937235715587</v>
       </c>
       <c r="F19">
-        <v>1.868921440030302</v>
+        <v>1.072572698842061</v>
       </c>
       <c r="G19">
-        <v>0.9590543941968346</v>
+        <v>1.030770772251524</v>
       </c>
       <c r="H19">
-        <v>6.137241793580719</v>
+        <v>1.154966495101525</v>
       </c>
       <c r="I19">
-        <v>0.7830765472027048</v>
+        <v>0.951383605261601</v>
       </c>
       <c r="J19">
-        <v>1.40386507527188</v>
+        <v>1.079430957471956</v>
       </c>
       <c r="K19">
-        <v>6.137241793580719</v>
+        <v>1.154966495101525</v>
       </c>
       <c r="L19">
-        <v>0.9625580799199204</v>
+        <v>1.044937235715587</v>
       </c>
       <c r="M19">
-        <v>1.415739759975111</v>
+        <v>1.058754967278824</v>
       </c>
       <c r="N19">
-        <v>1.415739759975111</v>
+        <v>1.058754967278824</v>
       </c>
       <c r="O19">
-        <v>1.204852022384309</v>
+        <v>1.022964513273083</v>
       </c>
       <c r="P19">
-        <v>2.989573771176981</v>
+        <v>1.090825476553057</v>
       </c>
       <c r="Q19">
-        <v>2.989573771176981</v>
+        <v>1.090825476553057</v>
       </c>
       <c r="R19">
-        <v>3.776490776777915</v>
+        <v>1.106860731190174</v>
       </c>
       <c r="S19">
-        <v>3.776490776777915</v>
+        <v>1.106860731190174</v>
       </c>
       <c r="T19">
-        <v>2.019119555033727</v>
+        <v>1.055676960774042</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.144589141489582</v>
+        <v>0.9979432565812978</v>
       </c>
       <c r="D20">
-        <v>1.073135262530278</v>
+        <v>1.333973750151458</v>
       </c>
       <c r="E20">
-        <v>1.033568966548231</v>
+        <v>1.053497508827163</v>
       </c>
       <c r="F20">
-        <v>1.144589141489582</v>
+        <v>0.9979432565812978</v>
       </c>
       <c r="G20">
-        <v>1.030753269494233</v>
+        <v>1.040257258505443</v>
       </c>
       <c r="H20">
-        <v>1.073135262530278</v>
+        <v>1.333973750151458</v>
       </c>
       <c r="I20">
-        <v>0.9616726626945857</v>
+        <v>0.9576742175764517</v>
       </c>
       <c r="J20">
-        <v>1.21603644817103</v>
+        <v>1.052196321400933</v>
       </c>
       <c r="K20">
-        <v>1.073135262530278</v>
+        <v>1.333973750151458</v>
       </c>
       <c r="L20">
-        <v>1.033568966548231</v>
+        <v>1.053497508827163</v>
       </c>
       <c r="M20">
-        <v>1.089079054018907</v>
+        <v>1.02572038270423</v>
       </c>
       <c r="N20">
-        <v>1.089079054018907</v>
+        <v>1.02572038270423</v>
       </c>
       <c r="O20">
-        <v>1.0466102569108</v>
+        <v>1.003038327661637</v>
       </c>
       <c r="P20">
-        <v>1.083764456856031</v>
+        <v>1.128471505186639</v>
       </c>
       <c r="Q20">
-        <v>1.083764456856031</v>
+        <v>1.128471505186639</v>
       </c>
       <c r="R20">
-        <v>1.081107158274592</v>
+        <v>1.179847066427844</v>
       </c>
       <c r="S20">
-        <v>1.081107158274592</v>
+        <v>1.179847066427844</v>
       </c>
       <c r="T20">
-        <v>1.07662595848799</v>
+        <v>1.072590385507124</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9424385652803237</v>
+        <v>1.170784789548284</v>
       </c>
       <c r="D21">
-        <v>1.139140961224233</v>
+        <v>1.510475023447335</v>
       </c>
       <c r="E21">
-        <v>1.066489958345489</v>
+        <v>1.003872677976649</v>
       </c>
       <c r="F21">
-        <v>0.9424385652803237</v>
+        <v>1.170784789548284</v>
       </c>
       <c r="G21">
-        <v>0.9927695383975436</v>
+        <v>1.040393402922461</v>
       </c>
       <c r="H21">
-        <v>1.139140961224233</v>
+        <v>1.510475023447335</v>
       </c>
       <c r="I21">
-        <v>0.9609853845349656</v>
+        <v>0.8908227406339652</v>
       </c>
       <c r="J21">
-        <v>0.9373915080736852</v>
+        <v>0.9021018654073194</v>
       </c>
       <c r="K21">
-        <v>1.139140961224233</v>
+        <v>1.510475023447335</v>
       </c>
       <c r="L21">
-        <v>1.066489958345489</v>
+        <v>1.003872677976649</v>
       </c>
       <c r="M21">
-        <v>1.004464261812906</v>
+        <v>1.087328733762467</v>
       </c>
       <c r="N21">
-        <v>1.004464261812906</v>
+        <v>1.087328733762467</v>
       </c>
       <c r="O21">
-        <v>0.9899713027202592</v>
+        <v>1.021826736052966</v>
       </c>
       <c r="P21">
-        <v>1.049356494950015</v>
+        <v>1.228377496990756</v>
       </c>
       <c r="Q21">
-        <v>1.049356494950015</v>
+        <v>1.228377496990756</v>
       </c>
       <c r="R21">
-        <v>1.07180261151857</v>
+        <v>1.298901878604901</v>
       </c>
       <c r="S21">
-        <v>1.07180261151857</v>
+        <v>1.298901878604901</v>
       </c>
       <c r="T21">
-        <v>1.00653598597604</v>
+        <v>1.086408416656002</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.8377181593914946</v>
+        <v>1.835955417661641</v>
       </c>
       <c r="D22">
-        <v>1.761919575526657</v>
+        <v>2.157090851817953</v>
       </c>
       <c r="E22">
-        <v>1.23692488167563</v>
+        <v>1.051598246964685</v>
       </c>
       <c r="F22">
-        <v>0.8377181593914946</v>
+        <v>1.835955417661641</v>
       </c>
       <c r="G22">
-        <v>1.312373877871419</v>
+        <v>0.9735831854508762</v>
       </c>
       <c r="H22">
-        <v>1.761919575526657</v>
+        <v>2.157090851817953</v>
       </c>
       <c r="I22">
-        <v>1.159225296265135</v>
+        <v>0.8705084761997125</v>
       </c>
       <c r="J22">
-        <v>2.104968163736011</v>
+        <v>0.7243580293298465</v>
       </c>
       <c r="K22">
-        <v>1.761919575526657</v>
+        <v>2.157090851817953</v>
       </c>
       <c r="L22">
-        <v>1.23692488167563</v>
+        <v>1.051598246964685</v>
       </c>
       <c r="M22">
-        <v>1.037321520533562</v>
+        <v>1.443776832313163</v>
       </c>
       <c r="N22">
-        <v>1.037321520533562</v>
+        <v>1.443776832313163</v>
       </c>
       <c r="O22">
-        <v>1.077956112444087</v>
+        <v>1.252687380275346</v>
       </c>
       <c r="P22">
-        <v>1.278854205531261</v>
+        <v>1.681548172148093</v>
       </c>
       <c r="Q22">
-        <v>1.278854205531261</v>
+        <v>1.681548172148093</v>
       </c>
       <c r="R22">
-        <v>1.39962054803011</v>
+        <v>1.800433842065558</v>
       </c>
       <c r="S22">
-        <v>1.39962054803011</v>
+        <v>1.800433842065558</v>
       </c>
       <c r="T22">
-        <v>1.402188325744391</v>
+        <v>1.268849034570786</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>3.422720996974683</v>
+      </c>
+      <c r="D23">
+        <v>3.06148866909023</v>
+      </c>
+      <c r="E23">
+        <v>0.9598420756086152</v>
+      </c>
+      <c r="F23">
+        <v>3.422720996974683</v>
+      </c>
+      <c r="G23">
+        <v>1.037594015808032</v>
+      </c>
+      <c r="H23">
+        <v>3.06148866909023</v>
+      </c>
+      <c r="I23">
+        <v>1.064044881497058</v>
+      </c>
+      <c r="J23">
+        <v>0.1782035295892721</v>
+      </c>
+      <c r="K23">
+        <v>3.06148866909023</v>
+      </c>
+      <c r="L23">
+        <v>0.9598420756086152</v>
+      </c>
+      <c r="M23">
+        <v>2.191281536291649</v>
+      </c>
+      <c r="N23">
+        <v>2.191281536291649</v>
+      </c>
+      <c r="O23">
+        <v>1.815535984693452</v>
+      </c>
+      <c r="P23">
+        <v>2.481350580557843</v>
+      </c>
+      <c r="Q23">
+        <v>2.481350580557843</v>
+      </c>
+      <c r="R23">
+        <v>2.62638510269094</v>
+      </c>
+      <c r="S23">
+        <v>2.62638510269094</v>
+      </c>
+      <c r="T23">
+        <v>1.620649028094649</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.004554680423565737</v>
+      </c>
+      <c r="D24">
+        <v>-0.0003421703317368952</v>
+      </c>
+      <c r="E24">
+        <v>0.5690785811987971</v>
+      </c>
+      <c r="F24">
+        <v>0.004554680423565737</v>
+      </c>
+      <c r="G24">
+        <v>1.197160491324909</v>
+      </c>
+      <c r="H24">
+        <v>-0.0003421703317368952</v>
+      </c>
+      <c r="I24">
+        <v>0.2984651631758184</v>
+      </c>
+      <c r="J24">
+        <v>-0.002882229086911463</v>
+      </c>
+      <c r="K24">
+        <v>-0.0003421703317368952</v>
+      </c>
+      <c r="L24">
+        <v>0.5690785811987971</v>
+      </c>
+      <c r="M24">
+        <v>0.2868166308111814</v>
+      </c>
+      <c r="N24">
+        <v>0.2868166308111814</v>
+      </c>
+      <c r="O24">
+        <v>0.2906994749327271</v>
+      </c>
+      <c r="P24">
+        <v>0.1910970304302086</v>
+      </c>
+      <c r="Q24">
+        <v>0.1910970304302086</v>
+      </c>
+      <c r="R24">
+        <v>0.1432372302397223</v>
+      </c>
+      <c r="S24">
+        <v>0.1432372302397223</v>
+      </c>
+      <c r="T24">
+        <v>0.3443390861174069</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.697035567127566</v>
+      </c>
+      <c r="D25">
+        <v>3.949016081694854</v>
+      </c>
+      <c r="E25">
+        <v>-0.0002601929222928995</v>
+      </c>
+      <c r="F25">
+        <v>1.697035567127566</v>
+      </c>
+      <c r="G25">
+        <v>0.2773127339309186</v>
+      </c>
+      <c r="H25">
+        <v>3.949016081694854</v>
+      </c>
+      <c r="I25">
+        <v>1.399430878682573</v>
+      </c>
+      <c r="J25">
+        <v>5.784812425470655</v>
+      </c>
+      <c r="K25">
+        <v>3.949016081694854</v>
+      </c>
+      <c r="L25">
+        <v>-0.0002601929222928995</v>
+      </c>
+      <c r="M25">
+        <v>0.8483876871026366</v>
+      </c>
+      <c r="N25">
+        <v>0.8483876871026366</v>
+      </c>
+      <c r="O25">
+        <v>1.032068750962615</v>
+      </c>
+      <c r="P25">
+        <v>1.881930485300042</v>
+      </c>
+      <c r="Q25">
+        <v>1.881930485300042</v>
+      </c>
+      <c r="R25">
+        <v>2.398701884398745</v>
+      </c>
+      <c r="S25">
+        <v>2.398701884398745</v>
+      </c>
+      <c r="T25">
+        <v>2.184557915664045</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>-0.001881162476360882</v>
+      </c>
+      <c r="D26">
+        <v>-0.0006148049061772164</v>
+      </c>
+      <c r="E26">
+        <v>0.2177545409409837</v>
+      </c>
+      <c r="F26">
+        <v>-0.001881162476360882</v>
+      </c>
+      <c r="G26">
+        <v>0.009354820609377035</v>
+      </c>
+      <c r="H26">
+        <v>-0.0006148049061772164</v>
+      </c>
+      <c r="I26">
+        <v>-0.0001539663275807757</v>
+      </c>
+      <c r="J26">
+        <v>-0.005609062275896851</v>
+      </c>
+      <c r="K26">
+        <v>-0.0006148049061772164</v>
+      </c>
+      <c r="L26">
+        <v>0.2177545409409837</v>
+      </c>
+      <c r="M26">
+        <v>0.1079366892323114</v>
+      </c>
+      <c r="N26">
+        <v>0.1079366892323114</v>
+      </c>
+      <c r="O26">
+        <v>0.07190647071234736</v>
+      </c>
+      <c r="P26">
+        <v>0.07175285785281521</v>
+      </c>
+      <c r="Q26">
+        <v>0.07175285785281521</v>
+      </c>
+      <c r="R26">
+        <v>0.0536609421630671</v>
+      </c>
+      <c r="S26">
+        <v>0.0536609421630671</v>
+      </c>
+      <c r="T26">
+        <v>0.03647506092739084</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>-0.002980182134650039</v>
+      </c>
+      <c r="D27">
+        <v>0.05920021582815116</v>
+      </c>
+      <c r="E27">
+        <v>0.2195736007113993</v>
+      </c>
+      <c r="F27">
+        <v>-0.002980182134650039</v>
+      </c>
+      <c r="G27">
+        <v>1.880683109819566</v>
+      </c>
+      <c r="H27">
+        <v>0.05920021582815116</v>
+      </c>
+      <c r="I27">
+        <v>0.001041557758840849</v>
+      </c>
+      <c r="J27">
+        <v>0.002781329987307488</v>
+      </c>
+      <c r="K27">
+        <v>0.05920021582815116</v>
+      </c>
+      <c r="L27">
+        <v>0.2195736007113993</v>
+      </c>
+      <c r="M27">
+        <v>0.1082967092883746</v>
+      </c>
+      <c r="N27">
+        <v>0.1082967092883746</v>
+      </c>
+      <c r="O27">
+        <v>0.07254499211186337</v>
+      </c>
+      <c r="P27">
+        <v>0.09193121146830013</v>
+      </c>
+      <c r="Q27">
+        <v>0.09193121146830013</v>
+      </c>
+      <c r="R27">
+        <v>0.08374846255826289</v>
+      </c>
+      <c r="S27">
+        <v>0.08374846255826289</v>
+      </c>
+      <c r="T27">
+        <v>0.360049938661769</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>5.904330445833563</v>
+      </c>
+      <c r="D28">
+        <v>3.992084087255759</v>
+      </c>
+      <c r="E28">
+        <v>3.066305699277802</v>
+      </c>
+      <c r="F28">
+        <v>5.904330445833563</v>
+      </c>
+      <c r="G28">
+        <v>0.2365534625805042</v>
+      </c>
+      <c r="H28">
+        <v>3.992084087255759</v>
+      </c>
+      <c r="I28">
+        <v>0.2067169259282126</v>
+      </c>
+      <c r="J28">
+        <v>8.742226507271026</v>
+      </c>
+      <c r="K28">
+        <v>3.992084087255759</v>
+      </c>
+      <c r="L28">
+        <v>3.066305699277802</v>
+      </c>
+      <c r="M28">
+        <v>4.485318072555683</v>
+      </c>
+      <c r="N28">
+        <v>4.485318072555683</v>
+      </c>
+      <c r="O28">
+        <v>3.059117690346526</v>
+      </c>
+      <c r="P28">
+        <v>4.320906744122375</v>
+      </c>
+      <c r="Q28">
+        <v>4.320906744122374</v>
+      </c>
+      <c r="R28">
+        <v>4.238701079905721</v>
+      </c>
+      <c r="S28">
+        <v>4.238701079905721</v>
+      </c>
+      <c r="T28">
+        <v>3.691369521357811</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>4.233642686050116</v>
+      </c>
+      <c r="D29">
+        <v>4.287706310392934</v>
+      </c>
+      <c r="E29">
+        <v>2.355722936229507</v>
+      </c>
+      <c r="F29">
+        <v>4.233642686050116</v>
+      </c>
+      <c r="G29">
+        <v>0.4800475172005385</v>
+      </c>
+      <c r="H29">
+        <v>4.287706310392934</v>
+      </c>
+      <c r="I29">
+        <v>0.4111935313788789</v>
+      </c>
+      <c r="J29">
+        <v>6.151585026436281</v>
+      </c>
+      <c r="K29">
+        <v>4.287706310392934</v>
+      </c>
+      <c r="L29">
+        <v>2.355722936229507</v>
+      </c>
+      <c r="M29">
+        <v>3.294682811139811</v>
+      </c>
+      <c r="N29">
+        <v>3.294682811139811</v>
+      </c>
+      <c r="O29">
+        <v>2.333519717886167</v>
+      </c>
+      <c r="P29">
+        <v>3.625690644224186</v>
+      </c>
+      <c r="Q29">
+        <v>3.625690644224186</v>
+      </c>
+      <c r="R29">
+        <v>3.791194560766373</v>
+      </c>
+      <c r="S29">
+        <v>3.791194560766373</v>
+      </c>
+      <c r="T29">
+        <v>2.986649667948043</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.329277793785018</v>
+      </c>
+      <c r="D30">
+        <v>4.58455862205234</v>
+      </c>
+      <c r="E30">
+        <v>0.723544556426467</v>
+      </c>
+      <c r="F30">
+        <v>1.329277793785018</v>
+      </c>
+      <c r="G30">
+        <v>0.6547795474358351</v>
+      </c>
+      <c r="H30">
+        <v>4.58455862205234</v>
+      </c>
+      <c r="I30">
+        <v>0.720376001842591</v>
+      </c>
+      <c r="J30">
+        <v>0.749538556246591</v>
+      </c>
+      <c r="K30">
+        <v>4.58455862205234</v>
+      </c>
+      <c r="L30">
+        <v>0.723544556426467</v>
+      </c>
+      <c r="M30">
+        <v>1.026411175105742</v>
+      </c>
+      <c r="N30">
+        <v>1.026411175105742</v>
+      </c>
+      <c r="O30">
+        <v>0.9243994506846919</v>
+      </c>
+      <c r="P30">
+        <v>2.212460324087941</v>
+      </c>
+      <c r="Q30">
+        <v>2.212460324087941</v>
+      </c>
+      <c r="R30">
+        <v>2.805484898579041</v>
+      </c>
+      <c r="S30">
+        <v>2.805484898579041</v>
+      </c>
+      <c r="T30">
+        <v>1.46034584629814</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.868921440030302</v>
+      </c>
+      <c r="D31">
+        <v>6.137241793580719</v>
+      </c>
+      <c r="E31">
+        <v>0.9625580799199204</v>
+      </c>
+      <c r="F31">
+        <v>1.868921440030302</v>
+      </c>
+      <c r="G31">
+        <v>0.9590543941968346</v>
+      </c>
+      <c r="H31">
+        <v>6.137241793580719</v>
+      </c>
+      <c r="I31">
+        <v>0.7830765472027048</v>
+      </c>
+      <c r="J31">
+        <v>1.40386507527188</v>
+      </c>
+      <c r="K31">
+        <v>6.137241793580719</v>
+      </c>
+      <c r="L31">
+        <v>0.9625580799199204</v>
+      </c>
+      <c r="M31">
+        <v>1.415739759975111</v>
+      </c>
+      <c r="N31">
+        <v>1.415739759975111</v>
+      </c>
+      <c r="O31">
+        <v>1.204852022384309</v>
+      </c>
+      <c r="P31">
+        <v>2.989573771176981</v>
+      </c>
+      <c r="Q31">
+        <v>2.989573771176981</v>
+      </c>
+      <c r="R31">
+        <v>3.776490776777915</v>
+      </c>
+      <c r="S31">
+        <v>3.776490776777915</v>
+      </c>
+      <c r="T31">
+        <v>2.019119555033727</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>7.469306673656027</v>
+      </c>
+      <c r="D32">
+        <v>5.394125392038903</v>
+      </c>
+      <c r="E32">
+        <v>3.723721210265206</v>
+      </c>
+      <c r="F32">
+        <v>7.469306673656027</v>
+      </c>
+      <c r="G32">
+        <v>-0.007450403042739729</v>
+      </c>
+      <c r="H32">
+        <v>5.394125392038903</v>
+      </c>
+      <c r="I32">
+        <v>0.001761001772876712</v>
+      </c>
+      <c r="J32">
+        <v>11.17506189583013</v>
+      </c>
+      <c r="K32">
+        <v>5.394125392038903</v>
+      </c>
+      <c r="L32">
+        <v>3.723721210265206</v>
+      </c>
+      <c r="M32">
+        <v>5.596513941960616</v>
+      </c>
+      <c r="N32">
+        <v>5.596513941960616</v>
+      </c>
+      <c r="O32">
+        <v>3.73159629523137</v>
+      </c>
+      <c r="P32">
+        <v>5.529051091986712</v>
+      </c>
+      <c r="Q32">
+        <v>5.529051091986712</v>
+      </c>
+      <c r="R32">
+        <v>5.495319666999759</v>
+      </c>
+      <c r="S32">
+        <v>5.495319666999759</v>
+      </c>
+      <c r="T32">
+        <v>4.626087628420067</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>13.55024100243842</v>
+      </c>
+      <c r="D33">
+        <v>6.775185284685268</v>
+      </c>
+      <c r="E33">
+        <v>3.576545425997369</v>
+      </c>
+      <c r="F33">
+        <v>13.55024100243842</v>
+      </c>
+      <c r="G33">
+        <v>-0.00700550762</v>
+      </c>
+      <c r="H33">
+        <v>6.775185284685268</v>
+      </c>
+      <c r="I33">
+        <v>0.001342648583157895</v>
+      </c>
+      <c r="J33">
+        <v>10.73438975628421</v>
+      </c>
+      <c r="K33">
+        <v>6.775185284685268</v>
+      </c>
+      <c r="L33">
+        <v>3.576545425997369</v>
+      </c>
+      <c r="M33">
+        <v>8.563393214217895</v>
+      </c>
+      <c r="N33">
+        <v>8.563393214217895</v>
+      </c>
+      <c r="O33">
+        <v>5.709376359006316</v>
+      </c>
+      <c r="P33">
+        <v>7.967323904373686</v>
+      </c>
+      <c r="Q33">
+        <v>7.967323904373687</v>
+      </c>
+      <c r="R33">
+        <v>7.669289249451582</v>
+      </c>
+      <c r="S33">
+        <v>7.669289249451582</v>
+      </c>
+      <c r="T33">
+        <v>5.771783101728071</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>14.35741520336105</v>
+      </c>
+      <c r="D34">
+        <v>13.55032498050159</v>
+      </c>
+      <c r="E34">
+        <v>0.004570951779473685</v>
+      </c>
+      <c r="F34">
+        <v>14.35741520336105</v>
+      </c>
+      <c r="G34">
+        <v>6.060929363157929E-05</v>
+      </c>
+      <c r="H34">
+        <v>13.55032498050159</v>
+      </c>
+      <c r="I34">
+        <v>6.650801036336841</v>
+      </c>
+      <c r="J34">
+        <v>0.007608171926315788</v>
+      </c>
+      <c r="K34">
+        <v>13.55032498050159</v>
+      </c>
+      <c r="L34">
+        <v>0.004570951779473685</v>
+      </c>
+      <c r="M34">
+        <v>7.180993077570263</v>
+      </c>
+      <c r="N34">
+        <v>7.180993077570263</v>
+      </c>
+      <c r="O34">
+        <v>7.004262397159121</v>
+      </c>
+      <c r="P34">
+        <v>9.304103711880705</v>
+      </c>
+      <c r="Q34">
+        <v>9.304103711880705</v>
+      </c>
+      <c r="R34">
+        <v>10.36565902903592</v>
+      </c>
+      <c r="S34">
+        <v>10.36565902903592</v>
+      </c>
+      <c r="T34">
+        <v>5.761796825533151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.3985679986459486</v>
+      </c>
+      <c r="D35">
+        <v>62.78125009740025</v>
+      </c>
+      <c r="E35">
+        <v>0.493336732503478</v>
+      </c>
+      <c r="F35">
+        <v>0.3985679986459486</v>
+      </c>
+      <c r="G35">
+        <v>0.4566329774081002</v>
+      </c>
+      <c r="H35">
+        <v>62.78125009740025</v>
+      </c>
+      <c r="I35">
+        <v>0.3868664579373366</v>
+      </c>
+      <c r="J35">
+        <v>0.3539392646686748</v>
+      </c>
+      <c r="K35">
+        <v>62.78125009740025</v>
+      </c>
+      <c r="L35">
+        <v>0.493336732503478</v>
+      </c>
+      <c r="M35">
+        <v>0.4459523655747133</v>
+      </c>
+      <c r="N35">
+        <v>0.4459523655747133</v>
+      </c>
+      <c r="O35">
+        <v>0.4262570630289211</v>
+      </c>
+      <c r="P35">
+        <v>21.22438494284989</v>
+      </c>
+      <c r="Q35">
+        <v>21.22438494284989</v>
+      </c>
+      <c r="R35">
+        <v>31.61360123148749</v>
+      </c>
+      <c r="S35">
+        <v>31.61360123148749</v>
+      </c>
+      <c r="T35">
+        <v>10.81176558809396</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.144589141489582</v>
+      </c>
+      <c r="D36">
+        <v>1.073135262530278</v>
+      </c>
+      <c r="E36">
+        <v>1.033568966548231</v>
+      </c>
+      <c r="F36">
+        <v>1.144589141489582</v>
+      </c>
+      <c r="G36">
+        <v>1.030753269494233</v>
+      </c>
+      <c r="H36">
+        <v>1.073135262530278</v>
+      </c>
+      <c r="I36">
+        <v>0.9616726626945857</v>
+      </c>
+      <c r="J36">
+        <v>1.21603644817103</v>
+      </c>
+      <c r="K36">
+        <v>1.073135262530278</v>
+      </c>
+      <c r="L36">
+        <v>1.033568966548231</v>
+      </c>
+      <c r="M36">
+        <v>1.089079054018907</v>
+      </c>
+      <c r="N36">
+        <v>1.089079054018907</v>
+      </c>
+      <c r="O36">
+        <v>1.0466102569108</v>
+      </c>
+      <c r="P36">
+        <v>1.083764456856031</v>
+      </c>
+      <c r="Q36">
+        <v>1.083764456856031</v>
+      </c>
+      <c r="R36">
+        <v>1.081107158274592</v>
+      </c>
+      <c r="S36">
+        <v>1.081107158274592</v>
+      </c>
+      <c r="T36">
+        <v>1.07662595848799</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9424385652803237</v>
+      </c>
+      <c r="D37">
+        <v>1.139140961224233</v>
+      </c>
+      <c r="E37">
+        <v>1.066489958345489</v>
+      </c>
+      <c r="F37">
+        <v>0.9424385652803237</v>
+      </c>
+      <c r="G37">
+        <v>0.9927695383975436</v>
+      </c>
+      <c r="H37">
+        <v>1.139140961224233</v>
+      </c>
+      <c r="I37">
+        <v>0.9609853845349656</v>
+      </c>
+      <c r="J37">
+        <v>0.9373915080736852</v>
+      </c>
+      <c r="K37">
+        <v>1.139140961224233</v>
+      </c>
+      <c r="L37">
+        <v>1.066489958345489</v>
+      </c>
+      <c r="M37">
+        <v>1.004464261812906</v>
+      </c>
+      <c r="N37">
+        <v>1.004464261812906</v>
+      </c>
+      <c r="O37">
+        <v>0.9899713027202592</v>
+      </c>
+      <c r="P37">
+        <v>1.049356494950015</v>
+      </c>
+      <c r="Q37">
+        <v>1.049356494950015</v>
+      </c>
+      <c r="R37">
+        <v>1.07180261151857</v>
+      </c>
+      <c r="S37">
+        <v>1.07180261151857</v>
+      </c>
+      <c r="T37">
+        <v>1.00653598597604</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.8377181593914946</v>
+      </c>
+      <c r="D38">
+        <v>1.761919575526657</v>
+      </c>
+      <c r="E38">
+        <v>1.23692488167563</v>
+      </c>
+      <c r="F38">
+        <v>0.8377181593914946</v>
+      </c>
+      <c r="G38">
+        <v>1.312373877871419</v>
+      </c>
+      <c r="H38">
+        <v>1.761919575526657</v>
+      </c>
+      <c r="I38">
+        <v>1.159225296265135</v>
+      </c>
+      <c r="J38">
+        <v>2.104968163736011</v>
+      </c>
+      <c r="K38">
+        <v>1.761919575526657</v>
+      </c>
+      <c r="L38">
+        <v>1.23692488167563</v>
+      </c>
+      <c r="M38">
+        <v>1.037321520533562</v>
+      </c>
+      <c r="N38">
+        <v>1.037321520533562</v>
+      </c>
+      <c r="O38">
+        <v>1.077956112444087</v>
+      </c>
+      <c r="P38">
+        <v>1.278854205531261</v>
+      </c>
+      <c r="Q38">
+        <v>1.278854205531261</v>
+      </c>
+      <c r="R38">
+        <v>1.39962054803011</v>
+      </c>
+      <c r="S38">
+        <v>1.39962054803011</v>
+      </c>
+      <c r="T38">
+        <v>1.402188325744391</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>4.27853236296406</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.389114020634176</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>2.306846657390331</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>4.27853236296406</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.21704352474398</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.389114020634176</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.152731871165905</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.3596968135566403</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.389114020634176</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>2.306846657390331</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>3.292689510177196</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>3.292689510177196</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>2.579370297173432</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>2.658164346996189</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>2.658164346996189</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>2.340901765405686</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>2.340901765405686</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.783994208409182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>3.886292347066095</v>
+      </c>
+      <c r="D40">
+        <v>0.957541886550942</v>
+      </c>
+      <c r="E40">
+        <v>0.9327640103476958</v>
+      </c>
+      <c r="F40">
+        <v>3.886292347066095</v>
+      </c>
+      <c r="G40">
+        <v>0.8361286799920159</v>
+      </c>
+      <c r="H40">
+        <v>0.957541886550942</v>
+      </c>
+      <c r="I40">
+        <v>1.028127112023121</v>
+      </c>
+      <c r="J40">
+        <v>0.919045097440872</v>
+      </c>
+      <c r="K40">
+        <v>0.957541886550942</v>
+      </c>
+      <c r="L40">
+        <v>0.9327640103476958</v>
+      </c>
+      <c r="M40">
+        <v>2.409528178706895</v>
+      </c>
+      <c r="N40">
+        <v>2.409528178706895</v>
+      </c>
+      <c r="O40">
+        <v>1.949061156478971</v>
+      </c>
+      <c r="P40">
+        <v>1.925532747988244</v>
+      </c>
+      <c r="Q40">
+        <v>1.925532747988244</v>
+      </c>
+      <c r="R40">
+        <v>1.683535032628919</v>
+      </c>
+      <c r="S40">
+        <v>1.683535032628919</v>
+      </c>
+      <c r="T40">
+        <v>1.426649855570123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.336868505431123</v>
+      </c>
+      <c r="D41">
+        <v>1.356917358784106</v>
+      </c>
+      <c r="E41">
+        <v>0.7686873568613821</v>
+      </c>
+      <c r="F41">
+        <v>1.336868505431123</v>
+      </c>
+      <c r="G41">
+        <v>0.8619710084637643</v>
+      </c>
+      <c r="H41">
+        <v>1.356917358784106</v>
+      </c>
+      <c r="I41">
+        <v>1.196892008157334</v>
+      </c>
+      <c r="J41">
+        <v>0.7797645360103717</v>
+      </c>
+      <c r="K41">
+        <v>1.356917358784106</v>
+      </c>
+      <c r="L41">
+        <v>0.7686873568613821</v>
+      </c>
+      <c r="M41">
+        <v>1.052777931146252</v>
+      </c>
+      <c r="N41">
+        <v>1.052777931146252</v>
+      </c>
+      <c r="O41">
+        <v>1.100815956816613</v>
+      </c>
+      <c r="P41">
+        <v>1.15415774035887</v>
+      </c>
+      <c r="Q41">
+        <v>1.15415774035887</v>
+      </c>
+      <c r="R41">
+        <v>1.204847644965179</v>
+      </c>
+      <c r="S41">
+        <v>1.204847644965179</v>
+      </c>
+      <c r="T41">
+        <v>1.05018346228468</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>3.419001400159499</v>
+      </c>
+      <c r="D42">
+        <v>0.3401357665716847</v>
+      </c>
+      <c r="E42">
+        <v>1.249722416353063</v>
+      </c>
+      <c r="F42">
+        <v>3.419001400159499</v>
+      </c>
+      <c r="G42">
+        <v>1.138243818667979</v>
+      </c>
+      <c r="H42">
+        <v>0.3401357665716847</v>
+      </c>
+      <c r="I42">
+        <v>0.6356264661343278</v>
+      </c>
+      <c r="J42">
+        <v>1.168533458316011</v>
+      </c>
+      <c r="K42">
+        <v>0.3401357665716847</v>
+      </c>
+      <c r="L42">
+        <v>1.249722416353063</v>
+      </c>
+      <c r="M42">
+        <v>2.334361908256281</v>
+      </c>
+      <c r="N42">
+        <v>2.334361908256281</v>
+      </c>
+      <c r="O42">
+        <v>1.768116760882297</v>
+      </c>
+      <c r="P42">
+        <v>1.669619861028082</v>
+      </c>
+      <c r="Q42">
+        <v>1.669619861028082</v>
+      </c>
+      <c r="R42">
+        <v>1.337248837413983</v>
+      </c>
+      <c r="S42">
+        <v>1.337248837413983</v>
+      </c>
+      <c r="T42">
+        <v>1.325210554367094</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/RGossF-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW03.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +582,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,58 +644,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.295492266374951</v>
+        <v>0.9979432565812978</v>
       </c>
       <c r="D3">
-        <v>1.452125741485345</v>
+        <v>1.333973750151458</v>
       </c>
       <c r="E3">
-        <v>1.150269633858089</v>
+        <v>1.053497508827163</v>
       </c>
       <c r="F3">
-        <v>1.295492266374951</v>
+        <v>0.9979432565812978</v>
       </c>
       <c r="G3">
-        <v>1.548560020979328</v>
+        <v>1.040257258505443</v>
       </c>
       <c r="H3">
-        <v>0.9336899255913829</v>
+        <v>1.333973750151458</v>
       </c>
       <c r="I3">
-        <v>0.976623643827448</v>
+        <v>0.9576742175764517</v>
       </c>
       <c r="J3">
-        <v>1.452125741485345</v>
+        <v>1.052196321400933</v>
       </c>
       <c r="K3">
-        <v>1.295492266374951</v>
+        <v>1.333973750151458</v>
       </c>
       <c r="L3">
-        <v>1.150269633858089</v>
+        <v>1.053497508827163</v>
       </c>
       <c r="M3">
-        <v>1.301197687671717</v>
+        <v>1.02572038270423</v>
       </c>
       <c r="N3">
-        <v>1.301197687671717</v>
+        <v>1.02572038270423</v>
       </c>
       <c r="O3">
-        <v>1.178695100311606</v>
+        <v>1.003038327661637</v>
       </c>
       <c r="P3">
-        <v>1.299295880572795</v>
+        <v>1.128471505186639</v>
       </c>
       <c r="Q3">
-        <v>1.299295880572795</v>
+        <v>1.128471505186639</v>
       </c>
       <c r="R3">
-        <v>1.298344977023334</v>
+        <v>1.179847066427844</v>
       </c>
       <c r="S3">
-        <v>1.298344977023334</v>
+        <v>1.179847066427844</v>
       </c>
       <c r="T3">
-        <v>1.226126872019424</v>
+        <v>1.072590385507124</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,58 +706,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.3302430938643</v>
+        <v>3.886292347066095</v>
       </c>
       <c r="D4">
-        <v>1.871386903592938</v>
+        <v>0.957541886550942</v>
       </c>
       <c r="E4">
-        <v>1.285733242545227</v>
+        <v>0.9327640103476958</v>
       </c>
       <c r="F4">
-        <v>1.3302430938643</v>
+        <v>3.886292347066095</v>
       </c>
       <c r="G4">
-        <v>2.251736062872274</v>
+        <v>0.8361286799920159</v>
       </c>
       <c r="H4">
-        <v>0.9881563300975634</v>
+        <v>0.957541886550942</v>
       </c>
       <c r="I4">
-        <v>1.127661896990736</v>
+        <v>1.028127112023121</v>
       </c>
       <c r="J4">
-        <v>1.871386903592938</v>
+        <v>0.919045097440872</v>
       </c>
       <c r="K4">
-        <v>1.3302430938643</v>
+        <v>0.957541886550942</v>
       </c>
       <c r="L4">
-        <v>1.285733242545227</v>
+        <v>0.9327640103476958</v>
       </c>
       <c r="M4">
-        <v>1.578560073069082</v>
+        <v>2.409528178706895</v>
       </c>
       <c r="N4">
-        <v>1.578560073069082</v>
+        <v>2.409528178706895</v>
       </c>
       <c r="O4">
-        <v>1.381758825411909</v>
+        <v>1.949061156478971</v>
       </c>
       <c r="P4">
-        <v>1.495787746667488</v>
+        <v>1.925532747988244</v>
       </c>
       <c r="Q4">
-        <v>1.495787746667488</v>
+        <v>1.925532747988244</v>
       </c>
       <c r="R4">
-        <v>1.454401583466691</v>
+        <v>1.683535032628919</v>
       </c>
       <c r="S4">
-        <v>1.454401583466691</v>
+        <v>1.683535032628919</v>
       </c>
       <c r="T4">
-        <v>1.475819588327173</v>
+        <v>1.426649855570123</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,58 +768,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.978031122509834</v>
+        <v>1.206923144558115</v>
       </c>
       <c r="D5">
-        <v>5.062552831278016</v>
+        <v>7.650946273845518</v>
       </c>
       <c r="E5">
-        <v>2.160744933283168</v>
+        <v>0.9641759883504987</v>
       </c>
       <c r="F5">
-        <v>2.978031122509834</v>
+        <v>1.206923144558115</v>
       </c>
       <c r="G5">
-        <v>0.805672669962617</v>
+        <v>0.9091592524866955</v>
       </c>
       <c r="H5">
-        <v>0.8218370522459507</v>
+        <v>7.650946273845518</v>
       </c>
       <c r="I5">
-        <v>1.135549128105724</v>
+        <v>0.8623311964228705</v>
       </c>
       <c r="J5">
-        <v>5.062552831278016</v>
+        <v>1.168960671523445</v>
       </c>
       <c r="K5">
-        <v>2.978031122509834</v>
+        <v>7.650946273845518</v>
       </c>
       <c r="L5">
-        <v>2.160744933283168</v>
+        <v>0.9641759883504987</v>
       </c>
       <c r="M5">
-        <v>3.611648882280592</v>
+        <v>1.085549566454307</v>
       </c>
       <c r="N5">
-        <v>3.611648882280592</v>
+        <v>1.085549566454307</v>
       </c>
       <c r="O5">
-        <v>2.681711605602378</v>
+        <v>1.011143443110495</v>
       </c>
       <c r="P5">
-        <v>3.400442962357006</v>
+        <v>3.27401513558471</v>
       </c>
       <c r="Q5">
-        <v>3.400442962357006</v>
+        <v>3.274015135584711</v>
       </c>
       <c r="R5">
-        <v>3.294840002395213</v>
+        <v>4.368247920149913</v>
       </c>
       <c r="S5">
-        <v>3.294840002395213</v>
+        <v>4.368247920149913</v>
       </c>
       <c r="T5">
-        <v>2.160731289564218</v>
+        <v>2.127082754531191</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -800,58 +830,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>6.141536622625312</v>
+        <v>0.3985679986459486</v>
       </c>
       <c r="D6">
-        <v>10.53646014905571</v>
+        <v>62.78125009740025</v>
       </c>
       <c r="E6">
-        <v>0.1983221858562887</v>
+        <v>0.493336732503478</v>
       </c>
       <c r="F6">
-        <v>6.141536622625312</v>
+        <v>0.3985679986459486</v>
       </c>
       <c r="G6">
-        <v>0.9160690244347376</v>
+        <v>0.4566329774081002</v>
       </c>
       <c r="H6">
-        <v>1.581953353157452</v>
+        <v>62.78125009740025</v>
       </c>
       <c r="I6">
-        <v>1.679612278469824</v>
+        <v>0.3868664579373366</v>
       </c>
       <c r="J6">
-        <v>10.53646014905571</v>
+        <v>0.3539392646686748</v>
       </c>
       <c r="K6">
-        <v>6.141536622625312</v>
+        <v>62.78125009740025</v>
       </c>
       <c r="L6">
-        <v>0.1983221858562887</v>
+        <v>0.493336732503478</v>
       </c>
       <c r="M6">
-        <v>5.367391167455997</v>
+        <v>0.4459523655747133</v>
       </c>
       <c r="N6">
-        <v>5.367391167455997</v>
+        <v>0.4459523655747133</v>
       </c>
       <c r="O6">
-        <v>4.105578562689815</v>
+        <v>0.4262570630289211</v>
       </c>
       <c r="P6">
-        <v>5.625439652512436</v>
+        <v>21.22438494284989</v>
       </c>
       <c r="Q6">
-        <v>5.625439652512434</v>
+        <v>21.22438494284989</v>
       </c>
       <c r="R6">
-        <v>5.754463895040654</v>
+        <v>31.61360123148749</v>
       </c>
       <c r="S6">
-        <v>5.754463895040654</v>
+        <v>31.61360123148749</v>
       </c>
       <c r="T6">
-        <v>3.508992268933219</v>
+        <v>10.81176558809396</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -862,58 +892,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.154966495101525</v>
+        <v>1.383873863486454</v>
       </c>
       <c r="D7">
-        <v>1.072572698842061</v>
+        <v>1.192561158651409</v>
       </c>
       <c r="E7">
-        <v>1.044937235715587</v>
+        <v>1.137570806386852</v>
       </c>
       <c r="F7">
-        <v>1.154966495101525</v>
+        <v>1.383873863486454</v>
       </c>
       <c r="G7">
-        <v>1.079430957471956</v>
+        <v>1.006317190375943</v>
       </c>
       <c r="H7">
-        <v>0.9513836052616002</v>
+        <v>1.192561158651409</v>
       </c>
       <c r="I7">
-        <v>1.030770772251522</v>
+        <v>0.9347666529051475</v>
       </c>
       <c r="J7">
-        <v>1.072572698842061</v>
+        <v>1.492012864715124</v>
       </c>
       <c r="K7">
-        <v>1.154966495101525</v>
+        <v>1.192561158651409</v>
       </c>
       <c r="L7">
-        <v>1.044937235715587</v>
+        <v>1.137570806386852</v>
       </c>
       <c r="M7">
-        <v>1.058754967278824</v>
+        <v>1.260722334936653</v>
       </c>
       <c r="N7">
-        <v>1.058754967278824</v>
+        <v>1.260722334936653</v>
       </c>
       <c r="O7">
-        <v>1.022964513273083</v>
+        <v>1.152070440926151</v>
       </c>
       <c r="P7">
-        <v>1.090825476553058</v>
+        <v>1.238001942841571</v>
       </c>
       <c r="Q7">
-        <v>1.090825476553058</v>
+        <v>1.238001942841571</v>
       </c>
       <c r="R7">
-        <v>1.106860731190175</v>
+        <v>1.226641746794031</v>
       </c>
       <c r="S7">
-        <v>1.106860731190175</v>
+        <v>1.226641746794031</v>
       </c>
       <c r="T7">
-        <v>1.055676960774042</v>
+        <v>1.191183756086821</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -924,58 +954,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.333973750151441</v>
+        <v>0.9424385652803237</v>
       </c>
       <c r="D8">
-        <v>0.9979432565812985</v>
+        <v>1.139140961224233</v>
       </c>
       <c r="E8">
-        <v>1.05349750882716</v>
+        <v>1.066489958345489</v>
       </c>
       <c r="F8">
-        <v>1.333973750151441</v>
+        <v>0.9424385652803237</v>
       </c>
       <c r="G8">
-        <v>1.052196321400934</v>
+        <v>0.9927695383975436</v>
       </c>
       <c r="H8">
-        <v>0.957674217576452</v>
+        <v>1.139140961224233</v>
       </c>
       <c r="I8">
-        <v>1.040257258505444</v>
+        <v>0.9609853845349656</v>
       </c>
       <c r="J8">
-        <v>0.9979432565812985</v>
+        <v>0.9373915080736852</v>
       </c>
       <c r="K8">
-        <v>1.333973750151441</v>
+        <v>1.139140961224233</v>
       </c>
       <c r="L8">
-        <v>1.05349750882716</v>
+        <v>1.066489958345489</v>
       </c>
       <c r="M8">
-        <v>1.025720382704229</v>
+        <v>1.004464261812906</v>
       </c>
       <c r="N8">
-        <v>1.025720382704229</v>
+        <v>1.004464261812906</v>
       </c>
       <c r="O8">
-        <v>1.003038327661637</v>
+        <v>0.9899713027202592</v>
       </c>
       <c r="P8">
-        <v>1.128471505186633</v>
+        <v>1.049356494950015</v>
       </c>
       <c r="Q8">
-        <v>1.128471505186633</v>
+        <v>1.049356494950015</v>
       </c>
       <c r="R8">
-        <v>1.179847066427835</v>
+        <v>1.07180261151857</v>
       </c>
       <c r="S8">
-        <v>1.179847066427835</v>
+        <v>1.07180261151857</v>
       </c>
       <c r="T8">
-        <v>1.072590385507121</v>
+        <v>1.00653598597604</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -986,58 +1016,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.510475023447335</v>
+        <v>1.871386903592938</v>
       </c>
       <c r="D9">
-        <v>1.170784789548284</v>
+        <v>1.3302430938643</v>
       </c>
       <c r="E9">
-        <v>1.003872677976649</v>
+        <v>1.285733242545227</v>
       </c>
       <c r="F9">
-        <v>1.510475023447335</v>
+        <v>1.871386903592938</v>
       </c>
       <c r="G9">
-        <v>0.9021018654073194</v>
+        <v>1.127661896990736</v>
       </c>
       <c r="H9">
-        <v>0.8908227406339653</v>
+        <v>1.3302430938643</v>
       </c>
       <c r="I9">
-        <v>1.040393402922461</v>
+        <v>0.9881563300975634</v>
       </c>
       <c r="J9">
-        <v>1.170784789548284</v>
+        <v>2.251736062872274</v>
       </c>
       <c r="K9">
-        <v>1.510475023447335</v>
+        <v>1.3302430938643</v>
       </c>
       <c r="L9">
-        <v>1.003872677976649</v>
+        <v>1.285733242545227</v>
       </c>
       <c r="M9">
-        <v>1.087328733762467</v>
+        <v>1.578560073069082</v>
       </c>
       <c r="N9">
-        <v>1.087328733762467</v>
+        <v>1.578560073069082</v>
       </c>
       <c r="O9">
-        <v>1.021826736052966</v>
+        <v>1.381758825411909</v>
       </c>
       <c r="P9">
-        <v>1.228377496990756</v>
+        <v>1.495787746667488</v>
       </c>
       <c r="Q9">
-        <v>1.228377496990756</v>
+        <v>1.495787746667488</v>
       </c>
       <c r="R9">
-        <v>1.298901878604901</v>
+        <v>1.454401583466691</v>
       </c>
       <c r="S9">
-        <v>1.298901878604901</v>
+        <v>1.454401583466691</v>
       </c>
       <c r="T9">
-        <v>1.086408416656002</v>
+        <v>1.475819588327173</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1048,58 +1078,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>2.157090851817953</v>
+        <v>0.4855522012735636</v>
       </c>
       <c r="D10">
-        <v>1.835955417661641</v>
+        <v>63.65521880583593</v>
       </c>
       <c r="E10">
-        <v>1.051598246964685</v>
+        <v>0.4390346212150745</v>
       </c>
       <c r="F10">
-        <v>2.157090851817953</v>
+        <v>0.4855522012735636</v>
       </c>
       <c r="G10">
-        <v>0.7243580293298465</v>
+        <v>0.4687497842999443</v>
       </c>
       <c r="H10">
-        <v>0.8705084761997125</v>
+        <v>63.65521880583593</v>
       </c>
       <c r="I10">
-        <v>0.9735831854508762</v>
+        <v>0.4015515018461845</v>
       </c>
       <c r="J10">
-        <v>1.835955417661641</v>
+        <v>0.4264089091912169</v>
       </c>
       <c r="K10">
-        <v>2.157090851817953</v>
+        <v>63.65521880583593</v>
       </c>
       <c r="L10">
-        <v>1.051598246964685</v>
+        <v>0.4390346212150745</v>
       </c>
       <c r="M10">
-        <v>1.443776832313163</v>
+        <v>0.462293411244319</v>
       </c>
       <c r="N10">
-        <v>1.443776832313163</v>
+        <v>0.462293411244319</v>
       </c>
       <c r="O10">
-        <v>1.252687380275346</v>
+        <v>0.4420461081116074</v>
       </c>
       <c r="P10">
-        <v>1.681548172148093</v>
+        <v>21.52660187610819</v>
       </c>
       <c r="Q10">
-        <v>1.681548172148093</v>
+        <v>21.52660187610819</v>
       </c>
       <c r="R10">
-        <v>1.800433842065558</v>
+        <v>32.05875610854012</v>
       </c>
       <c r="S10">
-        <v>1.800433842065558</v>
+        <v>32.05875610854012</v>
       </c>
       <c r="T10">
-        <v>1.268849034570786</v>
+        <v>10.97941930394365</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1110,58 +1140,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>3.06148866909023</v>
+        <v>4.090050088248262</v>
       </c>
       <c r="D11">
-        <v>3.422720996974683</v>
+        <v>1.152646719312243</v>
       </c>
       <c r="E11">
-        <v>0.959842075608615</v>
+        <v>0.6518988440261251</v>
       </c>
       <c r="F11">
-        <v>3.06148866909023</v>
+        <v>4.090050088248262</v>
       </c>
       <c r="G11">
-        <v>0.1782035295892721</v>
+        <v>0.7149647533232419</v>
       </c>
       <c r="H11">
-        <v>1.064044881497057</v>
+        <v>1.152646719312243</v>
       </c>
       <c r="I11">
-        <v>1.037594015808032</v>
+        <v>1.328549986777045</v>
       </c>
       <c r="J11">
-        <v>3.422720996974683</v>
+        <v>0.6077934474182507</v>
       </c>
       <c r="K11">
-        <v>3.06148866909023</v>
+        <v>1.152646719312243</v>
       </c>
       <c r="L11">
-        <v>0.959842075608615</v>
+        <v>0.6518988440261251</v>
       </c>
       <c r="M11">
-        <v>2.191281536291649</v>
+        <v>2.370974466137193</v>
       </c>
       <c r="N11">
-        <v>2.191281536291649</v>
+        <v>2.370974466137193</v>
       </c>
       <c r="O11">
-        <v>1.815535984693452</v>
+        <v>2.023499639683811</v>
       </c>
       <c r="P11">
-        <v>2.481350580557843</v>
+        <v>1.964865217195543</v>
       </c>
       <c r="Q11">
-        <v>2.481350580557843</v>
+        <v>1.964865217195544</v>
       </c>
       <c r="R11">
-        <v>2.626385102690939</v>
+        <v>1.761810592724719</v>
       </c>
       <c r="S11">
-        <v>2.626385102690939</v>
+        <v>1.761810592724719</v>
       </c>
       <c r="T11">
-        <v>1.620649028094648</v>
+        <v>1.424317306517528</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1172,58 +1202,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>-0.0003421703317368961</v>
+        <v>1.153584805821591</v>
       </c>
       <c r="D12">
-        <v>0.004554680423565732</v>
+        <v>10.6987540078612</v>
       </c>
       <c r="E12">
-        <v>0.5690785811987967</v>
+        <v>0.800948052017406</v>
       </c>
       <c r="F12">
-        <v>-0.0003421703317368961</v>
+        <v>1.153584805821591</v>
       </c>
       <c r="G12">
-        <v>-0.002882229086911456</v>
+        <v>0.8628525401499472</v>
       </c>
       <c r="H12">
-        <v>0.2984651631758174</v>
+        <v>10.6987540078612</v>
       </c>
       <c r="I12">
-        <v>1.197160491324912</v>
+        <v>0.8166052641374585</v>
       </c>
       <c r="J12">
-        <v>0.004554680423565732</v>
+        <v>0.7959538133324016</v>
       </c>
       <c r="K12">
-        <v>-0.0003421703317368961</v>
+        <v>10.6987540078612</v>
       </c>
       <c r="L12">
-        <v>0.5690785811987967</v>
+        <v>0.800948052017406</v>
       </c>
       <c r="M12">
-        <v>0.2868166308111813</v>
+        <v>0.9772664289194983</v>
       </c>
       <c r="N12">
-        <v>0.2868166308111813</v>
+        <v>0.9772664289194983</v>
       </c>
       <c r="O12">
-        <v>0.2906994749327266</v>
+        <v>0.923712707325485</v>
       </c>
       <c r="P12">
-        <v>0.1910970304302085</v>
+        <v>4.217762288566733</v>
       </c>
       <c r="Q12">
-        <v>0.1910970304302085</v>
+        <v>4.217762288566733</v>
       </c>
       <c r="R12">
-        <v>0.1432372302397222</v>
+        <v>5.83801021839035</v>
       </c>
       <c r="S12">
-        <v>0.1432372302397222</v>
+        <v>5.83801021839035</v>
       </c>
       <c r="T12">
-        <v>0.3443390861174072</v>
+        <v>2.521449747220001</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1234,58 +1264,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>3.94901608169484</v>
+        <v>1.518559418372648</v>
       </c>
       <c r="D13">
-        <v>1.69703556712756</v>
+        <v>0.7269847146156407</v>
       </c>
       <c r="E13">
-        <v>-0.000260192922292901</v>
+        <v>1.040047156938583</v>
       </c>
       <c r="F13">
-        <v>3.94901608169484</v>
+        <v>1.518559418372648</v>
       </c>
       <c r="G13">
-        <v>5.78481242547065</v>
+        <v>1.003865154735818</v>
       </c>
       <c r="H13">
-        <v>1.399430878682574</v>
+        <v>0.7269847146156407</v>
       </c>
       <c r="I13">
-        <v>0.2773127339309186</v>
+        <v>1.001961480194262</v>
       </c>
       <c r="J13">
-        <v>1.69703556712756</v>
+        <v>1.197775020704411</v>
       </c>
       <c r="K13">
-        <v>3.94901608169484</v>
+        <v>0.7269847146156407</v>
       </c>
       <c r="L13">
-        <v>-0.000260192922292901</v>
+        <v>1.040047156938583</v>
       </c>
       <c r="M13">
-        <v>0.8483876871026335</v>
+        <v>1.279303287655615</v>
       </c>
       <c r="N13">
-        <v>0.8483876871026335</v>
+        <v>1.279303287655615</v>
       </c>
       <c r="O13">
-        <v>1.032068750962614</v>
+        <v>1.186856018501831</v>
       </c>
       <c r="P13">
-        <v>1.881930485300036</v>
+        <v>1.09519709664229</v>
       </c>
       <c r="Q13">
-        <v>1.881930485300036</v>
+        <v>1.09519709664229</v>
       </c>
       <c r="R13">
-        <v>2.398701884398737</v>
+        <v>1.003144001135628</v>
       </c>
       <c r="S13">
-        <v>2.398701884398737</v>
+        <v>1.003144001135628</v>
       </c>
       <c r="T13">
-        <v>2.184557915664042</v>
+        <v>1.08153215759356</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1296,58 +1326,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-0.000614804906177223</v>
+        <v>0.0007090084299999996</v>
       </c>
       <c r="D14">
-        <v>-0.001881162476360879</v>
+        <v>121.1415100000001</v>
       </c>
       <c r="E14">
-        <v>0.2177545409409841</v>
+        <v>-0.01224095599999999</v>
       </c>
       <c r="F14">
-        <v>-0.000614804906177223</v>
+        <v>0.0007090084299999996</v>
       </c>
       <c r="G14">
-        <v>-0.005609062275896857</v>
+        <v>-0.0067091534</v>
       </c>
       <c r="H14">
-        <v>-0.0001539663275807752</v>
+        <v>121.1415100000001</v>
       </c>
       <c r="I14">
-        <v>0.009354820609377056</v>
+        <v>-0.001780275100000003</v>
       </c>
       <c r="J14">
-        <v>-0.001881162476360879</v>
+        <v>0.01028267199999999</v>
       </c>
       <c r="K14">
-        <v>-0.000614804906177223</v>
+        <v>121.1415100000001</v>
       </c>
       <c r="L14">
-        <v>0.2177545409409841</v>
+        <v>-0.01224095599999999</v>
       </c>
       <c r="M14">
-        <v>0.1079366892323116</v>
+        <v>-0.005765973784999996</v>
       </c>
       <c r="N14">
-        <v>0.1079366892323116</v>
+        <v>-0.005765973784999996</v>
       </c>
       <c r="O14">
-        <v>0.07190647071234747</v>
+        <v>-0.004437407556666665</v>
       </c>
       <c r="P14">
-        <v>0.07175285785281532</v>
+        <v>40.37665935081004</v>
       </c>
       <c r="Q14">
-        <v>0.07175285785281532</v>
+        <v>40.37665935081004</v>
       </c>
       <c r="R14">
-        <v>0.05366094216306719</v>
+        <v>60.56787201310756</v>
       </c>
       <c r="S14">
-        <v>0.05366094216306719</v>
+        <v>60.56787201310756</v>
       </c>
       <c r="T14">
-        <v>0.0364750609273909</v>
+        <v>20.18862854932169</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,58 +1388,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.05920021582815116</v>
+        <v>0.00070900843</v>
       </c>
       <c r="D15">
-        <v>-0.00298018213465004</v>
+        <v>121.14151</v>
       </c>
       <c r="E15">
-        <v>0.2195736007113993</v>
+        <v>-0.012240956</v>
       </c>
       <c r="F15">
-        <v>0.05920021582815116</v>
+        <v>0.00070900843</v>
       </c>
       <c r="G15">
-        <v>0.002781329987307487</v>
+        <v>-0.0067091534</v>
       </c>
       <c r="H15">
-        <v>0.001041557758840851</v>
+        <v>121.14151</v>
       </c>
       <c r="I15">
-        <v>1.880683109819565</v>
+        <v>-0.0017802751</v>
       </c>
       <c r="J15">
-        <v>-0.00298018213465004</v>
+        <v>0.010282672</v>
       </c>
       <c r="K15">
-        <v>0.05920021582815116</v>
+        <v>121.14151</v>
       </c>
       <c r="L15">
-        <v>0.2195736007113993</v>
+        <v>-0.012240956</v>
       </c>
       <c r="M15">
-        <v>0.1082967092883746</v>
+        <v>-0.005765973785000001</v>
       </c>
       <c r="N15">
-        <v>0.1082967092883746</v>
+        <v>-0.005765973785000001</v>
       </c>
       <c r="O15">
-        <v>0.07254499211186337</v>
+        <v>-0.004437407556666668</v>
       </c>
       <c r="P15">
-        <v>0.09193121146830013</v>
+        <v>40.37665935080999</v>
       </c>
       <c r="Q15">
-        <v>0.09193121146830013</v>
+        <v>40.37665935080999</v>
       </c>
       <c r="R15">
-        <v>0.08374846255826289</v>
+        <v>60.5678720131075</v>
       </c>
       <c r="S15">
-        <v>0.08374846255826289</v>
+        <v>60.5678720131075</v>
       </c>
       <c r="T15">
-        <v>0.360049938661769</v>
+        <v>20.18862854932167</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1420,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.073135262530279</v>
+        <v>242.27911</v>
       </c>
       <c r="D16">
-        <v>1.144589141489577</v>
+        <v>0.00070900842</v>
       </c>
       <c r="E16">
-        <v>1.033568966548229</v>
+        <v>-0.0009775088</v>
       </c>
       <c r="F16">
-        <v>1.073135262530279</v>
+        <v>242.27911</v>
       </c>
       <c r="G16">
-        <v>1.216036448171025</v>
+        <v>0.0090849982</v>
       </c>
       <c r="H16">
-        <v>0.9616726626945861</v>
+        <v>0.00070900842</v>
       </c>
       <c r="I16">
-        <v>1.030753269494233</v>
+        <v>-0.012365781</v>
       </c>
       <c r="J16">
-        <v>1.144589141489577</v>
+        <v>0.011910205</v>
       </c>
       <c r="K16">
-        <v>1.073135262530279</v>
+        <v>0.00070900842</v>
       </c>
       <c r="L16">
-        <v>1.033568966548229</v>
+        <v>-0.0009775088</v>
       </c>
       <c r="M16">
-        <v>1.089079054018903</v>
+        <v>121.1390662456</v>
       </c>
       <c r="N16">
-        <v>1.089079054018903</v>
+        <v>121.1390662456</v>
       </c>
       <c r="O16">
-        <v>1.046610256910798</v>
+        <v>80.75525557006667</v>
       </c>
       <c r="P16">
-        <v>1.083764456856029</v>
+        <v>80.75961383320667</v>
       </c>
       <c r="Q16">
-        <v>1.083764456856029</v>
+        <v>80.75961383320667</v>
       </c>
       <c r="R16">
-        <v>1.081107158274591</v>
+        <v>60.56988762701</v>
       </c>
       <c r="S16">
-        <v>1.081107158274591</v>
+        <v>60.56988762701</v>
       </c>
       <c r="T16">
-        <v>1.076625958487988</v>
+        <v>40.38124515363666</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.139140961224236</v>
+        <v>-0.023421194</v>
       </c>
       <c r="D17">
-        <v>0.9424385652803201</v>
+        <v>-0.019659597</v>
       </c>
       <c r="E17">
-        <v>1.066489958345487</v>
+        <v>2.8172085</v>
       </c>
       <c r="F17">
-        <v>1.139140961224236</v>
+        <v>-0.023421194</v>
       </c>
       <c r="G17">
-        <v>0.9373915080736804</v>
+        <v>-0.009736303700000001</v>
       </c>
       <c r="H17">
-        <v>0.9609853845349663</v>
+        <v>-0.019659597</v>
       </c>
       <c r="I17">
-        <v>0.9927695383975423</v>
+        <v>0.018353831</v>
       </c>
       <c r="J17">
-        <v>0.9424385652803201</v>
+        <v>0.017561992</v>
       </c>
       <c r="K17">
-        <v>1.139140961224236</v>
+        <v>-0.019659597</v>
       </c>
       <c r="L17">
-        <v>1.066489958345487</v>
+        <v>2.8172085</v>
       </c>
       <c r="M17">
-        <v>1.004464261812904</v>
+        <v>1.396893653</v>
       </c>
       <c r="N17">
-        <v>1.004464261812904</v>
+        <v>1.396893653</v>
       </c>
       <c r="O17">
-        <v>0.9899713027202578</v>
+        <v>0.937380379</v>
       </c>
       <c r="P17">
-        <v>1.049356494950014</v>
+        <v>0.9247092363333334</v>
       </c>
       <c r="Q17">
-        <v>1.049356494950014</v>
+        <v>0.9247092363333334</v>
       </c>
       <c r="R17">
-        <v>1.07180261151857</v>
+        <v>0.688617028</v>
       </c>
       <c r="S17">
-        <v>1.07180261151857</v>
+        <v>0.688617028</v>
       </c>
       <c r="T17">
-        <v>1.006535985976039</v>
+        <v>0.4667178713833334</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.761919575526657</v>
+        <v>7.469306673656027</v>
       </c>
       <c r="D18">
-        <v>0.837718159391482</v>
+        <v>5.394125392038903</v>
       </c>
       <c r="E18">
-        <v>1.236924881675631</v>
+        <v>3.723721210265206</v>
       </c>
       <c r="F18">
-        <v>1.761919575526657</v>
+        <v>7.469306673656027</v>
       </c>
       <c r="G18">
-        <v>2.104968163736</v>
+        <v>-0.007450403042739729</v>
       </c>
       <c r="H18">
-        <v>1.159225296265135</v>
+        <v>5.394125392038903</v>
       </c>
       <c r="I18">
-        <v>1.312373877871421</v>
+        <v>0.001761001772876712</v>
       </c>
       <c r="J18">
-        <v>0.837718159391482</v>
+        <v>11.17506189583013</v>
       </c>
       <c r="K18">
-        <v>1.761919575526657</v>
+        <v>5.394125392038903</v>
       </c>
       <c r="L18">
-        <v>1.236924881675631</v>
+        <v>3.723721210265206</v>
       </c>
       <c r="M18">
-        <v>1.037321520533556</v>
+        <v>5.596513941960616</v>
       </c>
       <c r="N18">
-        <v>1.037321520533556</v>
+        <v>5.596513941960616</v>
       </c>
       <c r="O18">
-        <v>1.077956112444083</v>
+        <v>3.73159629523137</v>
       </c>
       <c r="P18">
-        <v>1.278854205531257</v>
+        <v>5.529051091986712</v>
       </c>
       <c r="Q18">
-        <v>1.278854205531256</v>
+        <v>5.529051091986712</v>
       </c>
       <c r="R18">
-        <v>1.399620548030106</v>
+        <v>5.495319666999759</v>
       </c>
       <c r="S18">
-        <v>1.399620548030106</v>
+        <v>5.495319666999759</v>
       </c>
       <c r="T18">
-        <v>1.402188325744388</v>
+        <v>4.626087628420067</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.389114020634176</v>
+        <v>13.55024100243842</v>
       </c>
       <c r="D19">
-        <v>4.27853236296406</v>
+        <v>6.775185284685268</v>
       </c>
       <c r="E19">
-        <v>2.306846657390331</v>
+        <v>3.576545425997369</v>
       </c>
       <c r="F19">
-        <v>1.389114020634176</v>
+        <v>13.55024100243842</v>
       </c>
       <c r="G19">
-        <v>0.3596968135566403</v>
+        <v>-0.00700550762</v>
       </c>
       <c r="H19">
-        <v>1.152731871165905</v>
+        <v>6.775185284685268</v>
       </c>
       <c r="I19">
-        <v>1.217043524743979</v>
+        <v>0.001342648583157895</v>
       </c>
       <c r="J19">
-        <v>4.27853236296406</v>
+        <v>10.73438975628421</v>
       </c>
       <c r="K19">
-        <v>1.389114020634176</v>
+        <v>6.775185284685268</v>
       </c>
       <c r="L19">
-        <v>2.306846657390331</v>
+        <v>3.576545425997369</v>
       </c>
       <c r="M19">
-        <v>3.292689510177196</v>
+        <v>8.563393214217895</v>
       </c>
       <c r="N19">
-        <v>3.292689510177196</v>
+        <v>8.563393214217895</v>
       </c>
       <c r="O19">
-        <v>2.579370297173432</v>
+        <v>5.709376359006316</v>
       </c>
       <c r="P19">
-        <v>2.658164346996189</v>
+        <v>7.967323904373686</v>
       </c>
       <c r="Q19">
-        <v>2.658164346996189</v>
+        <v>7.967323904373687</v>
       </c>
       <c r="R19">
-        <v>2.340901765405686</v>
+        <v>7.669289249451582</v>
       </c>
       <c r="S19">
-        <v>2.340901765405686</v>
+        <v>7.669289249451582</v>
       </c>
       <c r="T19">
-        <v>1.783994208409182</v>
+        <v>5.771783101728071</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>14.35741520336105</v>
+      </c>
+      <c r="D20">
+        <v>13.55032498050159</v>
+      </c>
+      <c r="E20">
+        <v>0.004570951779473685</v>
+      </c>
+      <c r="F20">
+        <v>14.35741520336105</v>
+      </c>
+      <c r="G20">
+        <v>6.060929363157929E-05</v>
+      </c>
+      <c r="H20">
+        <v>13.55032498050159</v>
+      </c>
+      <c r="I20">
+        <v>6.650801036336841</v>
+      </c>
+      <c r="J20">
+        <v>0.007608171926315788</v>
+      </c>
+      <c r="K20">
+        <v>13.55032498050159</v>
+      </c>
+      <c r="L20">
+        <v>0.004570951779473685</v>
+      </c>
+      <c r="M20">
+        <v>7.180993077570263</v>
+      </c>
+      <c r="N20">
+        <v>7.180993077570263</v>
+      </c>
+      <c r="O20">
+        <v>7.004262397159121</v>
+      </c>
+      <c r="P20">
+        <v>9.304103711880705</v>
+      </c>
+      <c r="Q20">
+        <v>9.304103711880705</v>
+      </c>
+      <c r="R20">
+        <v>10.36565902903592</v>
+      </c>
+      <c r="S20">
+        <v>10.36565902903592</v>
+      </c>
+      <c r="T20">
+        <v>5.761796825533151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>-0.001881162476360882</v>
+      </c>
+      <c r="D21">
+        <v>-0.0006148049061772164</v>
+      </c>
+      <c r="E21">
+        <v>0.2177545409409837</v>
+      </c>
+      <c r="F21">
+        <v>-0.001881162476360882</v>
+      </c>
+      <c r="G21">
+        <v>0.009354820609377035</v>
+      </c>
+      <c r="H21">
+        <v>-0.0006148049061772164</v>
+      </c>
+      <c r="I21">
+        <v>-0.0001539663275807757</v>
+      </c>
+      <c r="J21">
+        <v>-0.005609062275896851</v>
+      </c>
+      <c r="K21">
+        <v>-0.0006148049061772164</v>
+      </c>
+      <c r="L21">
+        <v>0.2177545409409837</v>
+      </c>
+      <c r="M21">
+        <v>0.1079366892323114</v>
+      </c>
+      <c r="N21">
+        <v>0.1079366892323114</v>
+      </c>
+      <c r="O21">
+        <v>0.07190647071234736</v>
+      </c>
+      <c r="P21">
+        <v>0.07175285785281521</v>
+      </c>
+      <c r="Q21">
+        <v>0.07175285785281521</v>
+      </c>
+      <c r="R21">
+        <v>0.0536609421630671</v>
+      </c>
+      <c r="S21">
+        <v>0.0536609421630671</v>
+      </c>
+      <c r="T21">
+        <v>0.03647506092739084</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>-0.002980182134650039</v>
+      </c>
+      <c r="D22">
+        <v>0.05920021582815116</v>
+      </c>
+      <c r="E22">
+        <v>0.2195736007113993</v>
+      </c>
+      <c r="F22">
+        <v>-0.002980182134650039</v>
+      </c>
+      <c r="G22">
+        <v>1.880683109819566</v>
+      </c>
+      <c r="H22">
+        <v>0.05920021582815116</v>
+      </c>
+      <c r="I22">
+        <v>0.001041557758840849</v>
+      </c>
+      <c r="J22">
+        <v>0.002781329987307488</v>
+      </c>
+      <c r="K22">
+        <v>0.05920021582815116</v>
+      </c>
+      <c r="L22">
+        <v>0.2195736007113993</v>
+      </c>
+      <c r="M22">
+        <v>0.1082967092883746</v>
+      </c>
+      <c r="N22">
+        <v>0.1082967092883746</v>
+      </c>
+      <c r="O22">
+        <v>0.07254499211186337</v>
+      </c>
+      <c r="P22">
+        <v>0.09193121146830013</v>
+      </c>
+      <c r="Q22">
+        <v>0.09193121146830013</v>
+      </c>
+      <c r="R22">
+        <v>0.08374846255826289</v>
+      </c>
+      <c r="S22">
+        <v>0.08374846255826289</v>
+      </c>
+      <c r="T22">
+        <v>0.360049938661769</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.004554680423565737</v>
+      </c>
+      <c r="D23">
+        <v>-0.0003421703317368952</v>
+      </c>
+      <c r="E23">
+        <v>0.5690785811987971</v>
+      </c>
+      <c r="F23">
+        <v>0.004554680423565737</v>
+      </c>
+      <c r="G23">
+        <v>1.197160491324909</v>
+      </c>
+      <c r="H23">
+        <v>-0.0003421703317368952</v>
+      </c>
+      <c r="I23">
+        <v>0.2984651631758184</v>
+      </c>
+      <c r="J23">
+        <v>-0.002882229086911463</v>
+      </c>
+      <c r="K23">
+        <v>-0.0003421703317368952</v>
+      </c>
+      <c r="L23">
+        <v>0.5690785811987971</v>
+      </c>
+      <c r="M23">
+        <v>0.2868166308111814</v>
+      </c>
+      <c r="N23">
+        <v>0.2868166308111814</v>
+      </c>
+      <c r="O23">
+        <v>0.2906994749327271</v>
+      </c>
+      <c r="P23">
+        <v>0.1910970304302086</v>
+      </c>
+      <c r="Q23">
+        <v>0.1910970304302086</v>
+      </c>
+      <c r="R23">
+        <v>0.1432372302397223</v>
+      </c>
+      <c r="S23">
+        <v>0.1432372302397223</v>
+      </c>
+      <c r="T23">
+        <v>0.3443390861174069</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.697035567127566</v>
+      </c>
+      <c r="D24">
+        <v>3.949016081694854</v>
+      </c>
+      <c r="E24">
+        <v>-0.0002601929222928995</v>
+      </c>
+      <c r="F24">
+        <v>1.697035567127566</v>
+      </c>
+      <c r="G24">
+        <v>0.2773127339309186</v>
+      </c>
+      <c r="H24">
+        <v>3.949016081694854</v>
+      </c>
+      <c r="I24">
+        <v>1.399430878682573</v>
+      </c>
+      <c r="J24">
+        <v>5.784812425470655</v>
+      </c>
+      <c r="K24">
+        <v>3.949016081694854</v>
+      </c>
+      <c r="L24">
+        <v>-0.0002601929222928995</v>
+      </c>
+      <c r="M24">
+        <v>0.8483876871026366</v>
+      </c>
+      <c r="N24">
+        <v>0.8483876871026366</v>
+      </c>
+      <c r="O24">
+        <v>1.032068750962615</v>
+      </c>
+      <c r="P24">
+        <v>1.881930485300042</v>
+      </c>
+      <c r="Q24">
+        <v>1.881930485300042</v>
+      </c>
+      <c r="R24">
+        <v>2.398701884398745</v>
+      </c>
+      <c r="S24">
+        <v>2.398701884398745</v>
+      </c>
+      <c r="T24">
+        <v>2.184557915664045</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>11.3253112082399</v>
+      </c>
+      <c r="D25">
+        <v>-0.0003899418825473241</v>
+      </c>
+      <c r="E25">
+        <v>-0.0005623933643110939</v>
+      </c>
+      <c r="F25">
+        <v>11.3253112082399</v>
+      </c>
+      <c r="G25">
+        <v>-0.0004015883134463685</v>
+      </c>
+      <c r="H25">
+        <v>-0.0003899418825473241</v>
+      </c>
+      <c r="I25">
+        <v>1.939450867039163</v>
+      </c>
+      <c r="J25">
+        <v>0.000616817667711226</v>
+      </c>
+      <c r="K25">
+        <v>-0.0003899418825473241</v>
+      </c>
+      <c r="L25">
+        <v>-0.0005623933643110939</v>
+      </c>
+      <c r="M25">
+        <v>5.662374407437794</v>
+      </c>
+      <c r="N25">
+        <v>5.662374407437794</v>
+      </c>
+      <c r="O25">
+        <v>4.421399893971584</v>
+      </c>
+      <c r="P25">
+        <v>3.77478629099768</v>
+      </c>
+      <c r="Q25">
+        <v>3.77478629099768</v>
+      </c>
+      <c r="R25">
+        <v>2.830992232777624</v>
+      </c>
+      <c r="S25">
+        <v>2.830992232777624</v>
+      </c>
+      <c r="T25">
+        <v>2.210670828231078</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>-0.002695329008997497</v>
+      </c>
+      <c r="D26">
+        <v>0.03481782273669085</v>
+      </c>
+      <c r="E26">
+        <v>1.609722988348056</v>
+      </c>
+      <c r="F26">
+        <v>-0.002695329008997497</v>
+      </c>
+      <c r="G26">
+        <v>1.178403091363842</v>
+      </c>
+      <c r="H26">
+        <v>0.03481782273669085</v>
+      </c>
+      <c r="I26">
+        <v>1.579184742429798</v>
+      </c>
+      <c r="J26">
+        <v>-0.0009909289728137829</v>
+      </c>
+      <c r="K26">
+        <v>0.03481782273669085</v>
+      </c>
+      <c r="L26">
+        <v>1.609722988348056</v>
+      </c>
+      <c r="M26">
+        <v>0.8035138296695292</v>
+      </c>
+      <c r="N26">
+        <v>0.8035138296695292</v>
+      </c>
+      <c r="O26">
+        <v>1.062070800589619</v>
+      </c>
+      <c r="P26">
+        <v>0.5472818273585831</v>
+      </c>
+      <c r="Q26">
+        <v>0.5472818273585831</v>
+      </c>
+      <c r="R26">
+        <v>0.41916582620311</v>
+      </c>
+      <c r="S26">
+        <v>0.41916582620311</v>
+      </c>
+      <c r="T26">
+        <v>0.7330737311494292</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>-0.005718491828949946</v>
+      </c>
+      <c r="D27">
+        <v>7.126228920453401</v>
+      </c>
+      <c r="E27">
+        <v>0.9200931445365077</v>
+      </c>
+      <c r="F27">
+        <v>-0.005718491828949946</v>
+      </c>
+      <c r="G27">
+        <v>0.002371548944914412</v>
+      </c>
+      <c r="H27">
+        <v>7.126228920453401</v>
+      </c>
+      <c r="I27">
+        <v>1.772861162904885</v>
+      </c>
+      <c r="J27">
+        <v>3.242030450027405</v>
+      </c>
+      <c r="K27">
+        <v>7.126228920453401</v>
+      </c>
+      <c r="L27">
+        <v>0.9200931445365077</v>
+      </c>
+      <c r="M27">
+        <v>0.4571873263537789</v>
+      </c>
+      <c r="N27">
+        <v>0.4571873263537789</v>
+      </c>
+      <c r="O27">
+        <v>0.8957452718708142</v>
+      </c>
+      <c r="P27">
+        <v>2.680201191053653</v>
+      </c>
+      <c r="Q27">
+        <v>2.680201191053653</v>
+      </c>
+      <c r="R27">
+        <v>3.791708123403589</v>
+      </c>
+      <c r="S27">
+        <v>3.791708123403589</v>
+      </c>
+      <c r="T27">
+        <v>2.17631112250636</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>-0.005414776165687472</v>
+      </c>
+      <c r="D28">
+        <v>0.5426910114037745</v>
+      </c>
+      <c r="E28">
+        <v>8.292537431848331</v>
+      </c>
+      <c r="F28">
+        <v>-0.005414776165687472</v>
+      </c>
+      <c r="G28">
+        <v>0.007614999545077206</v>
+      </c>
+      <c r="H28">
+        <v>0.5426910114037745</v>
+      </c>
+      <c r="I28">
+        <v>5.815139571893584</v>
+      </c>
+      <c r="J28">
+        <v>0.7781182771153302</v>
+      </c>
+      <c r="K28">
+        <v>0.5426910114037745</v>
+      </c>
+      <c r="L28">
+        <v>8.292537431848331</v>
+      </c>
+      <c r="M28">
+        <v>4.143561327841321</v>
+      </c>
+      <c r="N28">
+        <v>4.143561327841321</v>
+      </c>
+      <c r="O28">
+        <v>4.700754075858742</v>
+      </c>
+      <c r="P28">
+        <v>2.943271222362139</v>
+      </c>
+      <c r="Q28">
+        <v>2.943271222362139</v>
+      </c>
+      <c r="R28">
+        <v>2.343126169622548</v>
+      </c>
+      <c r="S28">
+        <v>2.343126169622548</v>
+      </c>
+      <c r="T28">
+        <v>2.571781085940068</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>-0.007459666424226752</v>
+      </c>
+      <c r="D29">
+        <v>-0.005151004498092178</v>
+      </c>
+      <c r="E29">
+        <v>18.65890224519303</v>
+      </c>
+      <c r="F29">
+        <v>-0.007459666424226752</v>
+      </c>
+      <c r="G29">
+        <v>0.000568359711025985</v>
+      </c>
+      <c r="H29">
+        <v>-0.005151004498092178</v>
+      </c>
+      <c r="I29">
+        <v>4.279284874874669</v>
+      </c>
+      <c r="J29">
+        <v>0.003523759708202175</v>
+      </c>
+      <c r="K29">
+        <v>-0.005151004498092178</v>
+      </c>
+      <c r="L29">
+        <v>18.65890224519303</v>
+      </c>
+      <c r="M29">
+        <v>9.325721289384404</v>
+      </c>
+      <c r="N29">
+        <v>9.325721289384404</v>
+      </c>
+      <c r="O29">
+        <v>7.643575817881159</v>
+      </c>
+      <c r="P29">
+        <v>6.215430524756905</v>
+      </c>
+      <c r="Q29">
+        <v>6.215430524756905</v>
+      </c>
+      <c r="R29">
+        <v>4.660285142443156</v>
+      </c>
+      <c r="S29">
+        <v>4.660285142443156</v>
+      </c>
+      <c r="T29">
+        <v>3.821611428094102</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/RGossF-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>3.886292347066095</v>
+        <v>0.9101681114495747</v>
       </c>
       <c r="D4">
-        <v>0.957541886550942</v>
+        <v>4.617681519110559</v>
       </c>
       <c r="E4">
-        <v>0.9327640103476958</v>
+        <v>0.9460903948574366</v>
       </c>
       <c r="F4">
-        <v>3.886292347066095</v>
+        <v>0.9101681114495747</v>
       </c>
       <c r="G4">
-        <v>0.8361286799920159</v>
+        <v>0.9720869849106484</v>
       </c>
       <c r="H4">
-        <v>0.957541886550942</v>
+        <v>4.617681519110559</v>
       </c>
       <c r="I4">
-        <v>1.028127112023121</v>
+        <v>0.8243960270284902</v>
       </c>
       <c r="J4">
-        <v>0.919045097440872</v>
+        <v>0.9950832867648249</v>
       </c>
       <c r="K4">
-        <v>0.957541886550942</v>
+        <v>4.617681519110559</v>
       </c>
       <c r="L4">
-        <v>0.9327640103476958</v>
+        <v>0.9460903948574366</v>
       </c>
       <c r="M4">
-        <v>2.409528178706895</v>
+        <v>0.9281292531535057</v>
       </c>
       <c r="N4">
-        <v>2.409528178706895</v>
+        <v>0.9281292531535057</v>
       </c>
       <c r="O4">
-        <v>1.949061156478971</v>
+        <v>0.8935515111118338</v>
       </c>
       <c r="P4">
-        <v>1.925532747988244</v>
+        <v>2.157980008472524</v>
       </c>
       <c r="Q4">
-        <v>1.925532747988244</v>
+        <v>2.157980008472523</v>
       </c>
       <c r="R4">
-        <v>1.683535032628919</v>
+        <v>2.772905386132032</v>
       </c>
       <c r="S4">
-        <v>1.683535032628919</v>
+        <v>2.772905386132032</v>
       </c>
       <c r="T4">
-        <v>1.426649855570123</v>
+        <v>1.544251054020256</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.206923144558115</v>
+        <v>15.87384513864363</v>
       </c>
       <c r="D5">
-        <v>7.650946273845518</v>
+        <v>5.183045365796279</v>
       </c>
       <c r="E5">
-        <v>0.9641759883504987</v>
+        <v>0.005998354468898035</v>
       </c>
       <c r="F5">
-        <v>1.206923144558115</v>
+        <v>15.87384513864363</v>
       </c>
       <c r="G5">
-        <v>0.9091592524866955</v>
+        <v>0.0005670616796163971</v>
       </c>
       <c r="H5">
-        <v>7.650946273845518</v>
+        <v>5.183045365796279</v>
       </c>
       <c r="I5">
-        <v>0.8623311964228705</v>
+        <v>7.348346788132526</v>
       </c>
       <c r="J5">
-        <v>1.168960671523445</v>
+        <v>0.007090617060185584</v>
       </c>
       <c r="K5">
-        <v>7.650946273845518</v>
+        <v>5.183045365796279</v>
       </c>
       <c r="L5">
-        <v>0.9641759883504987</v>
+        <v>0.005998354468898035</v>
       </c>
       <c r="M5">
-        <v>1.085549566454307</v>
+        <v>7.939921746556262</v>
       </c>
       <c r="N5">
-        <v>1.085549566454307</v>
+        <v>7.939921746556262</v>
       </c>
       <c r="O5">
-        <v>1.011143443110495</v>
+        <v>7.742730093748349</v>
       </c>
       <c r="P5">
-        <v>3.27401513558471</v>
+        <v>7.020962952969601</v>
       </c>
       <c r="Q5">
-        <v>3.274015135584711</v>
+        <v>7.020962952969601</v>
       </c>
       <c r="R5">
-        <v>4.368247920149913</v>
+        <v>6.56148355617627</v>
       </c>
       <c r="S5">
-        <v>4.368247920149913</v>
+        <v>6.56148355617627</v>
       </c>
       <c r="T5">
-        <v>2.127082754531191</v>
+        <v>4.736482220963523</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.3985679986459486</v>
+        <v>3.886292347066095</v>
       </c>
       <c r="D6">
-        <v>62.78125009740025</v>
+        <v>0.957541886550942</v>
       </c>
       <c r="E6">
-        <v>0.493336732503478</v>
+        <v>0.9327640103476958</v>
       </c>
       <c r="F6">
-        <v>0.3985679986459486</v>
+        <v>3.886292347066095</v>
       </c>
       <c r="G6">
-        <v>0.4566329774081002</v>
+        <v>0.8361286799920159</v>
       </c>
       <c r="H6">
-        <v>62.78125009740025</v>
+        <v>0.957541886550942</v>
       </c>
       <c r="I6">
-        <v>0.3868664579373366</v>
+        <v>1.028127112023121</v>
       </c>
       <c r="J6">
-        <v>0.3539392646686748</v>
+        <v>0.919045097440872</v>
       </c>
       <c r="K6">
-        <v>62.78125009740025</v>
+        <v>0.957541886550942</v>
       </c>
       <c r="L6">
-        <v>0.493336732503478</v>
+        <v>0.9327640103476958</v>
       </c>
       <c r="M6">
-        <v>0.4459523655747133</v>
+        <v>2.409528178706895</v>
       </c>
       <c r="N6">
-        <v>0.4459523655747133</v>
+        <v>2.409528178706895</v>
       </c>
       <c r="O6">
-        <v>0.4262570630289211</v>
+        <v>1.949061156478971</v>
       </c>
       <c r="P6">
-        <v>21.22438494284989</v>
+        <v>1.925532747988244</v>
       </c>
       <c r="Q6">
-        <v>21.22438494284989</v>
+        <v>1.925532747988244</v>
       </c>
       <c r="R6">
-        <v>31.61360123148749</v>
+        <v>1.683535032628919</v>
       </c>
       <c r="S6">
-        <v>31.61360123148749</v>
+        <v>1.683535032628919</v>
       </c>
       <c r="T6">
-        <v>10.81176558809396</v>
+        <v>1.426649855570123</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.383873863486454</v>
+        <v>1.206923144558115</v>
       </c>
       <c r="D7">
-        <v>1.192561158651409</v>
+        <v>7.650946273845518</v>
       </c>
       <c r="E7">
-        <v>1.137570806386852</v>
+        <v>0.9641759883504987</v>
       </c>
       <c r="F7">
-        <v>1.383873863486454</v>
+        <v>1.206923144558115</v>
       </c>
       <c r="G7">
-        <v>1.006317190375943</v>
+        <v>0.9091592524866955</v>
       </c>
       <c r="H7">
-        <v>1.192561158651409</v>
+        <v>7.650946273845518</v>
       </c>
       <c r="I7">
-        <v>0.9347666529051475</v>
+        <v>0.8623311964228705</v>
       </c>
       <c r="J7">
-        <v>1.492012864715124</v>
+        <v>1.168960671523445</v>
       </c>
       <c r="K7">
-        <v>1.192561158651409</v>
+        <v>7.650946273845518</v>
       </c>
       <c r="L7">
-        <v>1.137570806386852</v>
+        <v>0.9641759883504987</v>
       </c>
       <c r="M7">
-        <v>1.260722334936653</v>
+        <v>1.085549566454307</v>
       </c>
       <c r="N7">
-        <v>1.260722334936653</v>
+        <v>1.085549566454307</v>
       </c>
       <c r="O7">
-        <v>1.152070440926151</v>
+        <v>1.011143443110495</v>
       </c>
       <c r="P7">
-        <v>1.238001942841571</v>
+        <v>3.27401513558471</v>
       </c>
       <c r="Q7">
-        <v>1.238001942841571</v>
+        <v>3.274015135584711</v>
       </c>
       <c r="R7">
-        <v>1.226641746794031</v>
+        <v>4.368247920149913</v>
       </c>
       <c r="S7">
-        <v>1.226641746794031</v>
+        <v>4.368247920149913</v>
       </c>
       <c r="T7">
-        <v>1.191183756086821</v>
+        <v>2.127082754531191</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9424385652803237</v>
+        <v>0.3985679986459486</v>
       </c>
       <c r="D8">
-        <v>1.139140961224233</v>
+        <v>62.78125009740025</v>
       </c>
       <c r="E8">
-        <v>1.066489958345489</v>
+        <v>0.493336732503478</v>
       </c>
       <c r="F8">
-        <v>0.9424385652803237</v>
+        <v>0.3985679986459486</v>
       </c>
       <c r="G8">
-        <v>0.9927695383975436</v>
+        <v>0.4566329774081002</v>
       </c>
       <c r="H8">
-        <v>1.139140961224233</v>
+        <v>62.78125009740025</v>
       </c>
       <c r="I8">
-        <v>0.9609853845349656</v>
+        <v>0.3868664579373366</v>
       </c>
       <c r="J8">
-        <v>0.9373915080736852</v>
+        <v>0.3539392646686748</v>
       </c>
       <c r="K8">
-        <v>1.139140961224233</v>
+        <v>62.78125009740025</v>
       </c>
       <c r="L8">
-        <v>1.066489958345489</v>
+        <v>0.493336732503478</v>
       </c>
       <c r="M8">
-        <v>1.004464261812906</v>
+        <v>0.4459523655747133</v>
       </c>
       <c r="N8">
-        <v>1.004464261812906</v>
+        <v>0.4459523655747133</v>
       </c>
       <c r="O8">
-        <v>0.9899713027202592</v>
+        <v>0.4262570630289211</v>
       </c>
       <c r="P8">
-        <v>1.049356494950015</v>
+        <v>21.22438494284989</v>
       </c>
       <c r="Q8">
-        <v>1.049356494950015</v>
+        <v>21.22438494284989</v>
       </c>
       <c r="R8">
-        <v>1.07180261151857</v>
+        <v>31.61360123148749</v>
       </c>
       <c r="S8">
-        <v>1.07180261151857</v>
+        <v>31.61360123148749</v>
       </c>
       <c r="T8">
-        <v>1.00653598597604</v>
+        <v>10.81176558809396</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.871386903592938</v>
+        <v>1.383873863486454</v>
       </c>
       <c r="D9">
-        <v>1.3302430938643</v>
+        <v>1.192561158651409</v>
       </c>
       <c r="E9">
-        <v>1.285733242545227</v>
+        <v>1.137570806386852</v>
       </c>
       <c r="F9">
-        <v>1.871386903592938</v>
+        <v>1.383873863486454</v>
       </c>
       <c r="G9">
-        <v>1.127661896990736</v>
+        <v>1.006317190375943</v>
       </c>
       <c r="H9">
-        <v>1.3302430938643</v>
+        <v>1.192561158651409</v>
       </c>
       <c r="I9">
-        <v>0.9881563300975634</v>
+        <v>0.9347666529051475</v>
       </c>
       <c r="J9">
-        <v>2.251736062872274</v>
+        <v>1.492012864715124</v>
       </c>
       <c r="K9">
-        <v>1.3302430938643</v>
+        <v>1.192561158651409</v>
       </c>
       <c r="L9">
-        <v>1.285733242545227</v>
+        <v>1.137570806386852</v>
       </c>
       <c r="M9">
-        <v>1.578560073069082</v>
+        <v>1.260722334936653</v>
       </c>
       <c r="N9">
-        <v>1.578560073069082</v>
+        <v>1.260722334936653</v>
       </c>
       <c r="O9">
-        <v>1.381758825411909</v>
+        <v>1.152070440926151</v>
       </c>
       <c r="P9">
-        <v>1.495787746667488</v>
+        <v>1.238001942841571</v>
       </c>
       <c r="Q9">
-        <v>1.495787746667488</v>
+        <v>1.238001942841571</v>
       </c>
       <c r="R9">
-        <v>1.454401583466691</v>
+        <v>1.226641746794031</v>
       </c>
       <c r="S9">
-        <v>1.454401583466691</v>
+        <v>1.226641746794031</v>
       </c>
       <c r="T9">
-        <v>1.475819588327173</v>
+        <v>1.191183756086821</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4855522012735636</v>
+        <v>0.9424385652803237</v>
       </c>
       <c r="D10">
-        <v>63.65521880583593</v>
+        <v>1.139140961224233</v>
       </c>
       <c r="E10">
-        <v>0.4390346212150745</v>
+        <v>1.066489958345489</v>
       </c>
       <c r="F10">
-        <v>0.4855522012735636</v>
+        <v>0.9424385652803237</v>
       </c>
       <c r="G10">
-        <v>0.4687497842999443</v>
+        <v>0.9927695383975436</v>
       </c>
       <c r="H10">
-        <v>63.65521880583593</v>
+        <v>1.139140961224233</v>
       </c>
       <c r="I10">
-        <v>0.4015515018461845</v>
+        <v>0.9609853845349656</v>
       </c>
       <c r="J10">
-        <v>0.4264089091912169</v>
+        <v>0.9373915080736852</v>
       </c>
       <c r="K10">
-        <v>63.65521880583593</v>
+        <v>1.139140961224233</v>
       </c>
       <c r="L10">
-        <v>0.4390346212150745</v>
+        <v>1.066489958345489</v>
       </c>
       <c r="M10">
-        <v>0.462293411244319</v>
+        <v>1.004464261812906</v>
       </c>
       <c r="N10">
-        <v>0.462293411244319</v>
+        <v>1.004464261812906</v>
       </c>
       <c r="O10">
-        <v>0.4420461081116074</v>
+        <v>0.9899713027202592</v>
       </c>
       <c r="P10">
-        <v>21.52660187610819</v>
+        <v>1.049356494950015</v>
       </c>
       <c r="Q10">
-        <v>21.52660187610819</v>
+        <v>1.049356494950015</v>
       </c>
       <c r="R10">
-        <v>32.05875610854012</v>
+        <v>1.07180261151857</v>
       </c>
       <c r="S10">
-        <v>32.05875610854012</v>
+        <v>1.07180261151857</v>
       </c>
       <c r="T10">
-        <v>10.97941930394365</v>
+        <v>1.00653598597604</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>4.090050088248262</v>
+        <v>1.871386903592938</v>
       </c>
       <c r="D11">
-        <v>1.152646719312243</v>
+        <v>1.3302430938643</v>
       </c>
       <c r="E11">
-        <v>0.6518988440261251</v>
+        <v>1.285733242545227</v>
       </c>
       <c r="F11">
-        <v>4.090050088248262</v>
+        <v>1.871386903592938</v>
       </c>
       <c r="G11">
-        <v>0.7149647533232419</v>
+        <v>1.127661896990736</v>
       </c>
       <c r="H11">
-        <v>1.152646719312243</v>
+        <v>1.3302430938643</v>
       </c>
       <c r="I11">
-        <v>1.328549986777045</v>
+        <v>0.9881563300975634</v>
       </c>
       <c r="J11">
-        <v>0.6077934474182507</v>
+        <v>2.251736062872274</v>
       </c>
       <c r="K11">
-        <v>1.152646719312243</v>
+        <v>1.3302430938643</v>
       </c>
       <c r="L11">
-        <v>0.6518988440261251</v>
+        <v>1.285733242545227</v>
       </c>
       <c r="M11">
-        <v>2.370974466137193</v>
+        <v>1.578560073069082</v>
       </c>
       <c r="N11">
-        <v>2.370974466137193</v>
+        <v>1.578560073069082</v>
       </c>
       <c r="O11">
-        <v>2.023499639683811</v>
+        <v>1.381758825411909</v>
       </c>
       <c r="P11">
-        <v>1.964865217195543</v>
+        <v>1.495787746667488</v>
       </c>
       <c r="Q11">
-        <v>1.964865217195544</v>
+        <v>1.495787746667488</v>
       </c>
       <c r="R11">
-        <v>1.761810592724719</v>
+        <v>1.454401583466691</v>
       </c>
       <c r="S11">
-        <v>1.761810592724719</v>
+        <v>1.454401583466691</v>
       </c>
       <c r="T11">
-        <v>1.424317306517528</v>
+        <v>1.475819588327173</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.153584805821591</v>
+        <v>0.4855522012735636</v>
       </c>
       <c r="D12">
-        <v>10.6987540078612</v>
+        <v>63.65521880583593</v>
       </c>
       <c r="E12">
-        <v>0.800948052017406</v>
+        <v>0.4390346212150745</v>
       </c>
       <c r="F12">
-        <v>1.153584805821591</v>
+        <v>0.4855522012735636</v>
       </c>
       <c r="G12">
-        <v>0.8628525401499472</v>
+        <v>0.4687497842999443</v>
       </c>
       <c r="H12">
-        <v>10.6987540078612</v>
+        <v>63.65521880583593</v>
       </c>
       <c r="I12">
-        <v>0.8166052641374585</v>
+        <v>0.4015515018461845</v>
       </c>
       <c r="J12">
-        <v>0.7959538133324016</v>
+        <v>0.4264089091912169</v>
       </c>
       <c r="K12">
-        <v>10.6987540078612</v>
+        <v>63.65521880583593</v>
       </c>
       <c r="L12">
-        <v>0.800948052017406</v>
+        <v>0.4390346212150745</v>
       </c>
       <c r="M12">
-        <v>0.9772664289194983</v>
+        <v>0.462293411244319</v>
       </c>
       <c r="N12">
-        <v>0.9772664289194983</v>
+        <v>0.462293411244319</v>
       </c>
       <c r="O12">
-        <v>0.923712707325485</v>
+        <v>0.4420461081116074</v>
       </c>
       <c r="P12">
-        <v>4.217762288566733</v>
+        <v>21.52660187610819</v>
       </c>
       <c r="Q12">
-        <v>4.217762288566733</v>
+        <v>21.52660187610819</v>
       </c>
       <c r="R12">
-        <v>5.83801021839035</v>
+        <v>32.05875610854012</v>
       </c>
       <c r="S12">
-        <v>5.83801021839035</v>
+        <v>32.05875610854012</v>
       </c>
       <c r="T12">
-        <v>2.521449747220001</v>
+        <v>10.97941930394365</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.518559418372648</v>
+        <v>4.090050088248262</v>
       </c>
       <c r="D13">
-        <v>0.7269847146156407</v>
+        <v>1.152646719312243</v>
       </c>
       <c r="E13">
-        <v>1.040047156938583</v>
+        <v>0.6518988440261251</v>
       </c>
       <c r="F13">
-        <v>1.518559418372648</v>
+        <v>4.090050088248262</v>
       </c>
       <c r="G13">
-        <v>1.003865154735818</v>
+        <v>0.7149647533232419</v>
       </c>
       <c r="H13">
-        <v>0.7269847146156407</v>
+        <v>1.152646719312243</v>
       </c>
       <c r="I13">
-        <v>1.001961480194262</v>
+        <v>1.328549986777045</v>
       </c>
       <c r="J13">
-        <v>1.197775020704411</v>
+        <v>0.6077934474182507</v>
       </c>
       <c r="K13">
-        <v>0.7269847146156407</v>
+        <v>1.152646719312243</v>
       </c>
       <c r="L13">
-        <v>1.040047156938583</v>
+        <v>0.6518988440261251</v>
       </c>
       <c r="M13">
-        <v>1.279303287655615</v>
+        <v>2.370974466137193</v>
       </c>
       <c r="N13">
-        <v>1.279303287655615</v>
+        <v>2.370974466137193</v>
       </c>
       <c r="O13">
-        <v>1.186856018501831</v>
+        <v>2.023499639683811</v>
       </c>
       <c r="P13">
-        <v>1.09519709664229</v>
+        <v>1.964865217195543</v>
       </c>
       <c r="Q13">
-        <v>1.09519709664229</v>
+        <v>1.964865217195544</v>
       </c>
       <c r="R13">
-        <v>1.003144001135628</v>
+        <v>1.761810592724719</v>
       </c>
       <c r="S13">
-        <v>1.003144001135628</v>
+        <v>1.761810592724719</v>
       </c>
       <c r="T13">
-        <v>1.08153215759356</v>
+        <v>1.424317306517528</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.0007090084299999996</v>
+        <v>1.153584805821591</v>
       </c>
       <c r="D14">
-        <v>121.1415100000001</v>
+        <v>10.6987540078612</v>
       </c>
       <c r="E14">
-        <v>-0.01224095599999999</v>
+        <v>0.800948052017406</v>
       </c>
       <c r="F14">
-        <v>0.0007090084299999996</v>
+        <v>1.153584805821591</v>
       </c>
       <c r="G14">
-        <v>-0.0067091534</v>
+        <v>0.8628525401499472</v>
       </c>
       <c r="H14">
-        <v>121.1415100000001</v>
+        <v>10.6987540078612</v>
       </c>
       <c r="I14">
-        <v>-0.001780275100000003</v>
+        <v>0.8166052641374585</v>
       </c>
       <c r="J14">
-        <v>0.01028267199999999</v>
+        <v>0.7959538133324016</v>
       </c>
       <c r="K14">
-        <v>121.1415100000001</v>
+        <v>10.6987540078612</v>
       </c>
       <c r="L14">
-        <v>-0.01224095599999999</v>
+        <v>0.800948052017406</v>
       </c>
       <c r="M14">
-        <v>-0.005765973784999996</v>
+        <v>0.9772664289194983</v>
       </c>
       <c r="N14">
-        <v>-0.005765973784999996</v>
+        <v>0.9772664289194983</v>
       </c>
       <c r="O14">
-        <v>-0.004437407556666665</v>
+        <v>0.923712707325485</v>
       </c>
       <c r="P14">
-        <v>40.37665935081004</v>
+        <v>4.217762288566733</v>
       </c>
       <c r="Q14">
-        <v>40.37665935081004</v>
+        <v>4.217762288566733</v>
       </c>
       <c r="R14">
-        <v>60.56787201310756</v>
+        <v>5.83801021839035</v>
       </c>
       <c r="S14">
-        <v>60.56787201310756</v>
+        <v>5.83801021839035</v>
       </c>
       <c r="T14">
-        <v>20.18862854932169</v>
+        <v>2.521449747220001</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.00070900843</v>
+        <v>1.518559418372648</v>
       </c>
       <c r="D15">
-        <v>121.14151</v>
+        <v>0.7269847146156407</v>
       </c>
       <c r="E15">
-        <v>-0.012240956</v>
+        <v>1.040047156938583</v>
       </c>
       <c r="F15">
-        <v>0.00070900843</v>
+        <v>1.518559418372648</v>
       </c>
       <c r="G15">
-        <v>-0.0067091534</v>
+        <v>1.003865154735818</v>
       </c>
       <c r="H15">
-        <v>121.14151</v>
+        <v>0.7269847146156407</v>
       </c>
       <c r="I15">
-        <v>-0.0017802751</v>
+        <v>1.001961480194262</v>
       </c>
       <c r="J15">
-        <v>0.010282672</v>
+        <v>1.197775020704411</v>
       </c>
       <c r="K15">
-        <v>121.14151</v>
+        <v>0.7269847146156407</v>
       </c>
       <c r="L15">
-        <v>-0.012240956</v>
+        <v>1.040047156938583</v>
       </c>
       <c r="M15">
-        <v>-0.005765973785000001</v>
+        <v>1.279303287655615</v>
       </c>
       <c r="N15">
-        <v>-0.005765973785000001</v>
+        <v>1.279303287655615</v>
       </c>
       <c r="O15">
-        <v>-0.004437407556666668</v>
+        <v>1.186856018501831</v>
       </c>
       <c r="P15">
-        <v>40.37665935080999</v>
+        <v>1.09519709664229</v>
       </c>
       <c r="Q15">
-        <v>40.37665935080999</v>
+        <v>1.09519709664229</v>
       </c>
       <c r="R15">
-        <v>60.5678720131075</v>
+        <v>1.003144001135628</v>
       </c>
       <c r="S15">
-        <v>60.5678720131075</v>
+        <v>1.003144001135628</v>
       </c>
       <c r="T15">
-        <v>20.18862854932167</v>
+        <v>1.08153215759356</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>242.27911</v>
+        <v>0.0007090084299999996</v>
       </c>
       <c r="D16">
-        <v>0.00070900842</v>
+        <v>121.1415100000001</v>
       </c>
       <c r="E16">
-        <v>-0.0009775088</v>
+        <v>-0.01224095599999999</v>
       </c>
       <c r="F16">
-        <v>242.27911</v>
+        <v>0.0007090084299999996</v>
       </c>
       <c r="G16">
-        <v>0.0090849982</v>
+        <v>-0.0067091534</v>
       </c>
       <c r="H16">
-        <v>0.00070900842</v>
+        <v>121.1415100000001</v>
       </c>
       <c r="I16">
-        <v>-0.012365781</v>
+        <v>-0.001780275100000003</v>
       </c>
       <c r="J16">
-        <v>0.011910205</v>
+        <v>0.01028267199999999</v>
       </c>
       <c r="K16">
-        <v>0.00070900842</v>
+        <v>121.1415100000001</v>
       </c>
       <c r="L16">
-        <v>-0.0009775088</v>
+        <v>-0.01224095599999999</v>
       </c>
       <c r="M16">
-        <v>121.1390662456</v>
+        <v>-0.005765973784999996</v>
       </c>
       <c r="N16">
-        <v>121.1390662456</v>
+        <v>-0.005765973784999996</v>
       </c>
       <c r="O16">
-        <v>80.75525557006667</v>
+        <v>-0.004437407556666665</v>
       </c>
       <c r="P16">
-        <v>80.75961383320667</v>
+        <v>40.37665935081004</v>
       </c>
       <c r="Q16">
-        <v>80.75961383320667</v>
+        <v>40.37665935081004</v>
       </c>
       <c r="R16">
-        <v>60.56988762701</v>
+        <v>60.56787201310756</v>
       </c>
       <c r="S16">
-        <v>60.56988762701</v>
+        <v>60.56787201310756</v>
       </c>
       <c r="T16">
-        <v>40.38124515363666</v>
+        <v>20.18862854932169</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>-0.023421194</v>
+        <v>0.00070900843</v>
       </c>
       <c r="D17">
-        <v>-0.019659597</v>
+        <v>121.14151</v>
       </c>
       <c r="E17">
-        <v>2.8172085</v>
+        <v>-0.012240956</v>
       </c>
       <c r="F17">
-        <v>-0.023421194</v>
+        <v>0.00070900843</v>
       </c>
       <c r="G17">
-        <v>-0.009736303700000001</v>
+        <v>-0.0067091534</v>
       </c>
       <c r="H17">
-        <v>-0.019659597</v>
+        <v>121.14151</v>
       </c>
       <c r="I17">
-        <v>0.018353831</v>
+        <v>-0.0017802751</v>
       </c>
       <c r="J17">
-        <v>0.017561992</v>
+        <v>0.010282672</v>
       </c>
       <c r="K17">
-        <v>-0.019659597</v>
+        <v>121.14151</v>
       </c>
       <c r="L17">
-        <v>2.8172085</v>
+        <v>-0.012240956</v>
       </c>
       <c r="M17">
-        <v>1.396893653</v>
+        <v>-0.005765973785000001</v>
       </c>
       <c r="N17">
-        <v>1.396893653</v>
+        <v>-0.005765973785000001</v>
       </c>
       <c r="O17">
-        <v>0.937380379</v>
+        <v>-0.004437407556666668</v>
       </c>
       <c r="P17">
-        <v>0.9247092363333334</v>
+        <v>40.37665935080999</v>
       </c>
       <c r="Q17">
-        <v>0.9247092363333334</v>
+        <v>40.37665935080999</v>
       </c>
       <c r="R17">
-        <v>0.688617028</v>
+        <v>60.5678720131075</v>
       </c>
       <c r="S17">
-        <v>0.688617028</v>
+        <v>60.5678720131075</v>
       </c>
       <c r="T17">
-        <v>0.4667178713833334</v>
+        <v>20.18862854932167</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>7.469306673656027</v>
+        <v>242.27911</v>
       </c>
       <c r="D18">
-        <v>5.394125392038903</v>
+        <v>0.00070900842</v>
       </c>
       <c r="E18">
-        <v>3.723721210265206</v>
+        <v>-0.0009775088</v>
       </c>
       <c r="F18">
-        <v>7.469306673656027</v>
+        <v>242.27911</v>
       </c>
       <c r="G18">
-        <v>-0.007450403042739729</v>
+        <v>0.0090849982</v>
       </c>
       <c r="H18">
-        <v>5.394125392038903</v>
+        <v>0.00070900842</v>
       </c>
       <c r="I18">
-        <v>0.001761001772876712</v>
+        <v>-0.012365781</v>
       </c>
       <c r="J18">
-        <v>11.17506189583013</v>
+        <v>0.011910205</v>
       </c>
       <c r="K18">
-        <v>5.394125392038903</v>
+        <v>0.00070900842</v>
       </c>
       <c r="L18">
-        <v>3.723721210265206</v>
+        <v>-0.0009775088</v>
       </c>
       <c r="M18">
-        <v>5.596513941960616</v>
+        <v>121.1390662456</v>
       </c>
       <c r="N18">
-        <v>5.596513941960616</v>
+        <v>121.1390662456</v>
       </c>
       <c r="O18">
-        <v>3.73159629523137</v>
+        <v>80.75525557006667</v>
       </c>
       <c r="P18">
-        <v>5.529051091986712</v>
+        <v>80.75961383320667</v>
       </c>
       <c r="Q18">
-        <v>5.529051091986712</v>
+        <v>80.75961383320667</v>
       </c>
       <c r="R18">
-        <v>5.495319666999759</v>
+        <v>60.56988762701</v>
       </c>
       <c r="S18">
-        <v>5.495319666999759</v>
+        <v>60.56988762701</v>
       </c>
       <c r="T18">
-        <v>4.626087628420067</v>
+        <v>40.38124515363666</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>13.55024100243842</v>
+        <v>-0.023421194</v>
       </c>
       <c r="D19">
-        <v>6.775185284685268</v>
+        <v>-0.019659597</v>
       </c>
       <c r="E19">
-        <v>3.576545425997369</v>
+        <v>2.8172085</v>
       </c>
       <c r="F19">
-        <v>13.55024100243842</v>
+        <v>-0.023421194</v>
       </c>
       <c r="G19">
-        <v>-0.00700550762</v>
+        <v>-0.009736303700000001</v>
       </c>
       <c r="H19">
-        <v>6.775185284685268</v>
+        <v>-0.019659597</v>
       </c>
       <c r="I19">
-        <v>0.001342648583157895</v>
+        <v>0.018353831</v>
       </c>
       <c r="J19">
-        <v>10.73438975628421</v>
+        <v>0.017561992</v>
       </c>
       <c r="K19">
-        <v>6.775185284685268</v>
+        <v>-0.019659597</v>
       </c>
       <c r="L19">
-        <v>3.576545425997369</v>
+        <v>2.8172085</v>
       </c>
       <c r="M19">
-        <v>8.563393214217895</v>
+        <v>1.396893653</v>
       </c>
       <c r="N19">
-        <v>8.563393214217895</v>
+        <v>1.396893653</v>
       </c>
       <c r="O19">
-        <v>5.709376359006316</v>
+        <v>0.937380379</v>
       </c>
       <c r="P19">
-        <v>7.967323904373686</v>
+        <v>0.9247092363333334</v>
       </c>
       <c r="Q19">
-        <v>7.967323904373687</v>
+        <v>0.9247092363333334</v>
       </c>
       <c r="R19">
-        <v>7.669289249451582</v>
+        <v>0.688617028</v>
       </c>
       <c r="S19">
-        <v>7.669289249451582</v>
+        <v>0.688617028</v>
       </c>
       <c r="T19">
-        <v>5.771783101728071</v>
+        <v>0.4667178713833334</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>14.35741520336105</v>
+        <v>7.469306673656027</v>
       </c>
       <c r="D20">
-        <v>13.55032498050159</v>
+        <v>5.394125392038903</v>
       </c>
       <c r="E20">
-        <v>0.004570951779473685</v>
+        <v>3.723721210265206</v>
       </c>
       <c r="F20">
-        <v>14.35741520336105</v>
+        <v>7.469306673656027</v>
       </c>
       <c r="G20">
-        <v>6.060929363157929E-05</v>
+        <v>-0.007450403042739729</v>
       </c>
       <c r="H20">
-        <v>13.55032498050159</v>
+        <v>5.394125392038903</v>
       </c>
       <c r="I20">
-        <v>6.650801036336841</v>
+        <v>0.001761001772876712</v>
       </c>
       <c r="J20">
-        <v>0.007608171926315788</v>
+        <v>11.17506189583013</v>
       </c>
       <c r="K20">
-        <v>13.55032498050159</v>
+        <v>5.394125392038903</v>
       </c>
       <c r="L20">
-        <v>0.004570951779473685</v>
+        <v>3.723721210265206</v>
       </c>
       <c r="M20">
-        <v>7.180993077570263</v>
+        <v>5.596513941960616</v>
       </c>
       <c r="N20">
-        <v>7.180993077570263</v>
+        <v>5.596513941960616</v>
       </c>
       <c r="O20">
-        <v>7.004262397159121</v>
+        <v>3.73159629523137</v>
       </c>
       <c r="P20">
-        <v>9.304103711880705</v>
+        <v>5.529051091986712</v>
       </c>
       <c r="Q20">
-        <v>9.304103711880705</v>
+        <v>5.529051091986712</v>
       </c>
       <c r="R20">
-        <v>10.36565902903592</v>
+        <v>5.495319666999759</v>
       </c>
       <c r="S20">
-        <v>10.36565902903592</v>
+        <v>5.495319666999759</v>
       </c>
       <c r="T20">
-        <v>5.761796825533151</v>
+        <v>4.626087628420067</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>-0.001881162476360882</v>
+        <v>13.55024100243842</v>
       </c>
       <c r="D21">
-        <v>-0.0006148049061772164</v>
+        <v>6.775185284685268</v>
       </c>
       <c r="E21">
-        <v>0.2177545409409837</v>
+        <v>3.576545425997369</v>
       </c>
       <c r="F21">
-        <v>-0.001881162476360882</v>
+        <v>13.55024100243842</v>
       </c>
       <c r="G21">
-        <v>0.009354820609377035</v>
+        <v>-0.00700550762</v>
       </c>
       <c r="H21">
-        <v>-0.0006148049061772164</v>
+        <v>6.775185284685268</v>
       </c>
       <c r="I21">
-        <v>-0.0001539663275807757</v>
+        <v>0.001342648583157895</v>
       </c>
       <c r="J21">
-        <v>-0.005609062275896851</v>
+        <v>10.73438975628421</v>
       </c>
       <c r="K21">
-        <v>-0.0006148049061772164</v>
+        <v>6.775185284685268</v>
       </c>
       <c r="L21">
-        <v>0.2177545409409837</v>
+        <v>3.576545425997369</v>
       </c>
       <c r="M21">
-        <v>0.1079366892323114</v>
+        <v>8.563393214217895</v>
       </c>
       <c r="N21">
-        <v>0.1079366892323114</v>
+        <v>8.563393214217895</v>
       </c>
       <c r="O21">
-        <v>0.07190647071234736</v>
+        <v>5.709376359006316</v>
       </c>
       <c r="P21">
-        <v>0.07175285785281521</v>
+        <v>7.967323904373686</v>
       </c>
       <c r="Q21">
-        <v>0.07175285785281521</v>
+        <v>7.967323904373687</v>
       </c>
       <c r="R21">
-        <v>0.0536609421630671</v>
+        <v>7.669289249451582</v>
       </c>
       <c r="S21">
-        <v>0.0536609421630671</v>
+        <v>7.669289249451582</v>
       </c>
       <c r="T21">
-        <v>0.03647506092739084</v>
+        <v>5.771783101728071</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>-0.002980182134650039</v>
+        <v>14.35741520336105</v>
       </c>
       <c r="D22">
-        <v>0.05920021582815116</v>
+        <v>13.55032498050159</v>
       </c>
       <c r="E22">
-        <v>0.2195736007113993</v>
+        <v>0.004570951779473685</v>
       </c>
       <c r="F22">
-        <v>-0.002980182134650039</v>
+        <v>14.35741520336105</v>
       </c>
       <c r="G22">
-        <v>1.880683109819566</v>
+        <v>6.060929363157929E-05</v>
       </c>
       <c r="H22">
-        <v>0.05920021582815116</v>
+        <v>13.55032498050159</v>
       </c>
       <c r="I22">
-        <v>0.001041557758840849</v>
+        <v>6.650801036336841</v>
       </c>
       <c r="J22">
-        <v>0.002781329987307488</v>
+        <v>0.007608171926315788</v>
       </c>
       <c r="K22">
-        <v>0.05920021582815116</v>
+        <v>13.55032498050159</v>
       </c>
       <c r="L22">
-        <v>0.2195736007113993</v>
+        <v>0.004570951779473685</v>
       </c>
       <c r="M22">
-        <v>0.1082967092883746</v>
+        <v>7.180993077570263</v>
       </c>
       <c r="N22">
-        <v>0.1082967092883746</v>
+        <v>7.180993077570263</v>
       </c>
       <c r="O22">
-        <v>0.07254499211186337</v>
+        <v>7.004262397159121</v>
       </c>
       <c r="P22">
-        <v>0.09193121146830013</v>
+        <v>9.304103711880705</v>
       </c>
       <c r="Q22">
-        <v>0.09193121146830013</v>
+        <v>9.304103711880705</v>
       </c>
       <c r="R22">
-        <v>0.08374846255826289</v>
+        <v>10.36565902903592</v>
       </c>
       <c r="S22">
-        <v>0.08374846255826289</v>
+        <v>10.36565902903592</v>
       </c>
       <c r="T22">
-        <v>0.360049938661769</v>
+        <v>5.761796825533151</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.004554680423565737</v>
+        <v>-0.001881162476360882</v>
       </c>
       <c r="D23">
-        <v>-0.0003421703317368952</v>
+        <v>-0.0006148049061772164</v>
       </c>
       <c r="E23">
-        <v>0.5690785811987971</v>
+        <v>0.2177545409409837</v>
       </c>
       <c r="F23">
-        <v>0.004554680423565737</v>
+        <v>-0.001881162476360882</v>
       </c>
       <c r="G23">
-        <v>1.197160491324909</v>
+        <v>0.009354820609377035</v>
       </c>
       <c r="H23">
-        <v>-0.0003421703317368952</v>
+        <v>-0.0006148049061772164</v>
       </c>
       <c r="I23">
-        <v>0.2984651631758184</v>
+        <v>-0.0001539663275807757</v>
       </c>
       <c r="J23">
-        <v>-0.002882229086911463</v>
+        <v>-0.005609062275896851</v>
       </c>
       <c r="K23">
-        <v>-0.0003421703317368952</v>
+        <v>-0.0006148049061772164</v>
       </c>
       <c r="L23">
-        <v>0.5690785811987971</v>
+        <v>0.2177545409409837</v>
       </c>
       <c r="M23">
-        <v>0.2868166308111814</v>
+        <v>0.1079366892323114</v>
       </c>
       <c r="N23">
-        <v>0.2868166308111814</v>
+        <v>0.1079366892323114</v>
       </c>
       <c r="O23">
-        <v>0.2906994749327271</v>
+        <v>0.07190647071234736</v>
       </c>
       <c r="P23">
-        <v>0.1910970304302086</v>
+        <v>0.07175285785281521</v>
       </c>
       <c r="Q23">
-        <v>0.1910970304302086</v>
+        <v>0.07175285785281521</v>
       </c>
       <c r="R23">
-        <v>0.1432372302397223</v>
+        <v>0.0536609421630671</v>
       </c>
       <c r="S23">
-        <v>0.1432372302397223</v>
+        <v>0.0536609421630671</v>
       </c>
       <c r="T23">
-        <v>0.3443390861174069</v>
+        <v>0.03647506092739084</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.697035567127566</v>
+        <v>-0.002980182134650039</v>
       </c>
       <c r="D24">
-        <v>3.949016081694854</v>
+        <v>0.05920021582815116</v>
       </c>
       <c r="E24">
-        <v>-0.0002601929222928995</v>
+        <v>0.2195736007113993</v>
       </c>
       <c r="F24">
-        <v>1.697035567127566</v>
+        <v>-0.002980182134650039</v>
       </c>
       <c r="G24">
-        <v>0.2773127339309186</v>
+        <v>1.880683109819566</v>
       </c>
       <c r="H24">
-        <v>3.949016081694854</v>
+        <v>0.05920021582815116</v>
       </c>
       <c r="I24">
-        <v>1.399430878682573</v>
+        <v>0.001041557758840849</v>
       </c>
       <c r="J24">
-        <v>5.784812425470655</v>
+        <v>0.002781329987307488</v>
       </c>
       <c r="K24">
-        <v>3.949016081694854</v>
+        <v>0.05920021582815116</v>
       </c>
       <c r="L24">
-        <v>-0.0002601929222928995</v>
+        <v>0.2195736007113993</v>
       </c>
       <c r="M24">
-        <v>0.8483876871026366</v>
+        <v>0.1082967092883746</v>
       </c>
       <c r="N24">
-        <v>0.8483876871026366</v>
+        <v>0.1082967092883746</v>
       </c>
       <c r="O24">
-        <v>1.032068750962615</v>
+        <v>0.07254499211186337</v>
       </c>
       <c r="P24">
-        <v>1.881930485300042</v>
+        <v>0.09193121146830013</v>
       </c>
       <c r="Q24">
-        <v>1.881930485300042</v>
+        <v>0.09193121146830013</v>
       </c>
       <c r="R24">
-        <v>2.398701884398745</v>
+        <v>0.08374846255826289</v>
       </c>
       <c r="S24">
-        <v>2.398701884398745</v>
+        <v>0.08374846255826289</v>
       </c>
       <c r="T24">
-        <v>2.184557915664045</v>
+        <v>0.360049938661769</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>11.3253112082399</v>
+        <v>0.004554680423565737</v>
       </c>
       <c r="D25">
-        <v>-0.0003899418825473241</v>
+        <v>-0.0003421703317368952</v>
       </c>
       <c r="E25">
-        <v>-0.0005623933643110939</v>
+        <v>0.5690785811987971</v>
       </c>
       <c r="F25">
-        <v>11.3253112082399</v>
+        <v>0.004554680423565737</v>
       </c>
       <c r="G25">
-        <v>-0.0004015883134463685</v>
+        <v>1.197160491324909</v>
       </c>
       <c r="H25">
-        <v>-0.0003899418825473241</v>
+        <v>-0.0003421703317368952</v>
       </c>
       <c r="I25">
-        <v>1.939450867039163</v>
+        <v>0.2984651631758184</v>
       </c>
       <c r="J25">
-        <v>0.000616817667711226</v>
+        <v>-0.002882229086911463</v>
       </c>
       <c r="K25">
-        <v>-0.0003899418825473241</v>
+        <v>-0.0003421703317368952</v>
       </c>
       <c r="L25">
-        <v>-0.0005623933643110939</v>
+        <v>0.5690785811987971</v>
       </c>
       <c r="M25">
-        <v>5.662374407437794</v>
+        <v>0.2868166308111814</v>
       </c>
       <c r="N25">
-        <v>5.662374407437794</v>
+        <v>0.2868166308111814</v>
       </c>
       <c r="O25">
-        <v>4.421399893971584</v>
+        <v>0.2906994749327271</v>
       </c>
       <c r="P25">
-        <v>3.77478629099768</v>
+        <v>0.1910970304302086</v>
       </c>
       <c r="Q25">
-        <v>3.77478629099768</v>
+        <v>0.1910970304302086</v>
       </c>
       <c r="R25">
-        <v>2.830992232777624</v>
+        <v>0.1432372302397223</v>
       </c>
       <c r="S25">
-        <v>2.830992232777624</v>
+        <v>0.1432372302397223</v>
       </c>
       <c r="T25">
-        <v>2.210670828231078</v>
+        <v>0.3443390861174069</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>-0.002695329008997497</v>
+        <v>1.697035567127566</v>
       </c>
       <c r="D26">
-        <v>0.03481782273669085</v>
+        <v>3.949016081694854</v>
       </c>
       <c r="E26">
-        <v>1.609722988348056</v>
+        <v>-0.0002601929222928995</v>
       </c>
       <c r="F26">
-        <v>-0.002695329008997497</v>
+        <v>1.697035567127566</v>
       </c>
       <c r="G26">
-        <v>1.178403091363842</v>
+        <v>0.2773127339309186</v>
       </c>
       <c r="H26">
-        <v>0.03481782273669085</v>
+        <v>3.949016081694854</v>
       </c>
       <c r="I26">
-        <v>1.579184742429798</v>
+        <v>1.399430878682573</v>
       </c>
       <c r="J26">
-        <v>-0.0009909289728137829</v>
+        <v>5.784812425470655</v>
       </c>
       <c r="K26">
-        <v>0.03481782273669085</v>
+        <v>3.949016081694854</v>
       </c>
       <c r="L26">
-        <v>1.609722988348056</v>
+        <v>-0.0002601929222928995</v>
       </c>
       <c r="M26">
-        <v>0.8035138296695292</v>
+        <v>0.8483876871026366</v>
       </c>
       <c r="N26">
-        <v>0.8035138296695292</v>
+        <v>0.8483876871026366</v>
       </c>
       <c r="O26">
-        <v>1.062070800589619</v>
+        <v>1.032068750962615</v>
       </c>
       <c r="P26">
-        <v>0.5472818273585831</v>
+        <v>1.881930485300042</v>
       </c>
       <c r="Q26">
-        <v>0.5472818273585831</v>
+        <v>1.881930485300042</v>
       </c>
       <c r="R26">
-        <v>0.41916582620311</v>
+        <v>2.398701884398745</v>
       </c>
       <c r="S26">
-        <v>0.41916582620311</v>
+        <v>2.398701884398745</v>
       </c>
       <c r="T26">
-        <v>0.7330737311494292</v>
+        <v>2.184557915664045</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>-0.005718491828949946</v>
+        <v>11.3253112082399</v>
       </c>
       <c r="D27">
-        <v>7.126228920453401</v>
+        <v>-0.0003899418825473241</v>
       </c>
       <c r="E27">
-        <v>0.9200931445365077</v>
+        <v>-0.0005623933643110939</v>
       </c>
       <c r="F27">
-        <v>-0.005718491828949946</v>
+        <v>11.3253112082399</v>
       </c>
       <c r="G27">
-        <v>0.002371548944914412</v>
+        <v>-0.0004015883134463685</v>
       </c>
       <c r="H27">
-        <v>7.126228920453401</v>
+        <v>-0.0003899418825473241</v>
       </c>
       <c r="I27">
-        <v>1.772861162904885</v>
+        <v>1.939450867039163</v>
       </c>
       <c r="J27">
-        <v>3.242030450027405</v>
+        <v>0.000616817667711226</v>
       </c>
       <c r="K27">
-        <v>7.126228920453401</v>
+        <v>-0.0003899418825473241</v>
       </c>
       <c r="L27">
-        <v>0.9200931445365077</v>
+        <v>-0.0005623933643110939</v>
       </c>
       <c r="M27">
-        <v>0.4571873263537789</v>
+        <v>5.662374407437794</v>
       </c>
       <c r="N27">
-        <v>0.4571873263537789</v>
+        <v>5.662374407437794</v>
       </c>
       <c r="O27">
-        <v>0.8957452718708142</v>
+        <v>4.421399893971584</v>
       </c>
       <c r="P27">
-        <v>2.680201191053653</v>
+        <v>3.77478629099768</v>
       </c>
       <c r="Q27">
-        <v>2.680201191053653</v>
+        <v>3.77478629099768</v>
       </c>
       <c r="R27">
-        <v>3.791708123403589</v>
+        <v>2.830992232777624</v>
       </c>
       <c r="S27">
-        <v>3.791708123403589</v>
+        <v>2.830992232777624</v>
       </c>
       <c r="T27">
-        <v>2.17631112250636</v>
+        <v>2.210670828231078</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>-0.005414776165687472</v>
+        <v>-0.002695329008997497</v>
       </c>
       <c r="D28">
-        <v>0.5426910114037745</v>
+        <v>0.03481782273669085</v>
       </c>
       <c r="E28">
-        <v>8.292537431848331</v>
+        <v>1.609722988348056</v>
       </c>
       <c r="F28">
-        <v>-0.005414776165687472</v>
+        <v>-0.002695329008997497</v>
       </c>
       <c r="G28">
-        <v>0.007614999545077206</v>
+        <v>1.178403091363842</v>
       </c>
       <c r="H28">
-        <v>0.5426910114037745</v>
+        <v>0.03481782273669085</v>
       </c>
       <c r="I28">
-        <v>5.815139571893584</v>
+        <v>1.579184742429798</v>
       </c>
       <c r="J28">
-        <v>0.7781182771153302</v>
+        <v>-0.0009909289728137829</v>
       </c>
       <c r="K28">
-        <v>0.5426910114037745</v>
+        <v>0.03481782273669085</v>
       </c>
       <c r="L28">
-        <v>8.292537431848331</v>
+        <v>1.609722988348056</v>
       </c>
       <c r="M28">
-        <v>4.143561327841321</v>
+        <v>0.8035138296695292</v>
       </c>
       <c r="N28">
-        <v>4.143561327841321</v>
+        <v>0.8035138296695292</v>
       </c>
       <c r="O28">
-        <v>4.700754075858742</v>
+        <v>1.062070800589619</v>
       </c>
       <c r="P28">
-        <v>2.943271222362139</v>
+        <v>0.5472818273585831</v>
       </c>
       <c r="Q28">
-        <v>2.943271222362139</v>
+        <v>0.5472818273585831</v>
       </c>
       <c r="R28">
-        <v>2.343126169622548</v>
+        <v>0.41916582620311</v>
       </c>
       <c r="S28">
-        <v>2.343126169622548</v>
+        <v>0.41916582620311</v>
       </c>
       <c r="T28">
-        <v>2.571781085940068</v>
+        <v>0.7330737311494292</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>-0.005718491828949946</v>
+      </c>
+      <c r="D29">
+        <v>7.126228920453401</v>
+      </c>
+      <c r="E29">
+        <v>0.9200931445365077</v>
+      </c>
+      <c r="F29">
+        <v>-0.005718491828949946</v>
+      </c>
+      <c r="G29">
+        <v>0.002371548944914412</v>
+      </c>
+      <c r="H29">
+        <v>7.126228920453401</v>
+      </c>
+      <c r="I29">
+        <v>1.772861162904885</v>
+      </c>
+      <c r="J29">
+        <v>3.242030450027405</v>
+      </c>
+      <c r="K29">
+        <v>7.126228920453401</v>
+      </c>
+      <c r="L29">
+        <v>0.9200931445365077</v>
+      </c>
+      <c r="M29">
+        <v>0.4571873263537789</v>
+      </c>
+      <c r="N29">
+        <v>0.4571873263537789</v>
+      </c>
+      <c r="O29">
+        <v>0.8957452718708142</v>
+      </c>
+      <c r="P29">
+        <v>2.680201191053653</v>
+      </c>
+      <c r="Q29">
+        <v>2.680201191053653</v>
+      </c>
+      <c r="R29">
+        <v>3.791708123403589</v>
+      </c>
+      <c r="S29">
+        <v>3.791708123403589</v>
+      </c>
+      <c r="T29">
+        <v>2.17631112250636</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>-0.005414776165687472</v>
+      </c>
+      <c r="D30">
+        <v>0.5426910114037745</v>
+      </c>
+      <c r="E30">
+        <v>8.292537431848331</v>
+      </c>
+      <c r="F30">
+        <v>-0.005414776165687472</v>
+      </c>
+      <c r="G30">
+        <v>0.007614999545077206</v>
+      </c>
+      <c r="H30">
+        <v>0.5426910114037745</v>
+      </c>
+      <c r="I30">
+        <v>5.815139571893584</v>
+      </c>
+      <c r="J30">
+        <v>0.7781182771153302</v>
+      </c>
+      <c r="K30">
+        <v>0.5426910114037745</v>
+      </c>
+      <c r="L30">
+        <v>8.292537431848331</v>
+      </c>
+      <c r="M30">
+        <v>4.143561327841321</v>
+      </c>
+      <c r="N30">
+        <v>4.143561327841321</v>
+      </c>
+      <c r="O30">
+        <v>4.700754075858742</v>
+      </c>
+      <c r="P30">
+        <v>2.943271222362139</v>
+      </c>
+      <c r="Q30">
+        <v>2.943271222362139</v>
+      </c>
+      <c r="R30">
+        <v>2.343126169622548</v>
+      </c>
+      <c r="S30">
+        <v>2.343126169622548</v>
+      </c>
+      <c r="T30">
+        <v>2.571781085940068</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>-0.007459666424226752</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>-0.005151004498092178</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>18.65890224519303</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>-0.007459666424226752</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.000568359711025985</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>-0.005151004498092178</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>4.279284874874669</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.003523759708202175</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>-0.005151004498092178</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>18.65890224519303</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>9.325721289384404</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>9.325721289384404</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>7.643575817881159</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>6.215430524756905</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>6.215430524756905</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>4.660285142443156</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>4.660285142443156</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>3.821611428094102</v>
       </c>
     </row>
